--- a/collection/data/policies/CIHI_closures_openings.xlsx
+++ b/collection/data/policies/CIHI_closures_openings.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kt/Documents/work/STATCAN/Projects/nick/collection/data/policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63601D94-6FDE-BE4A-9DDB-C8598317B031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79442583-27A2-3447-BACC-096B3B52E1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B4121951-06CD-2247-ACCE-15AA6F239984}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
     <sheet name="top20" sheetId="5" r:id="rId2"/>
+    <sheet name="validation" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orig!$A$1:$L$539</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top20'!$A$1:$L$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top20'!$A$1:$L$91</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5654" uniqueCount="1617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5739" uniqueCount="1656">
   <si>
     <t>Entry ID</t>
   </si>
@@ -29986,57 +29987,24 @@
     <t>https://www.ontario.ca/page/covid-19-response-framework-keeping-ontario-safe-and-open#control</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>https://www.regionofwaterloo.ca/en/index.aspx#section1</t>
   </si>
   <si>
     <t>https://www.niagararegion.ca/health/COVID-19/</t>
   </si>
   <si>
-    <t>https://ottawa.ctvnews.ca/eastern-ontario-health-unit-joins-ottawa-in-orange-restrict-zone-for-covid-19-restrictions-1.5188178</t>
-  </si>
-  <si>
-    <t>Openings - some personal care</t>
-  </si>
-  <si>
-    <t>Closures - some personal care</t>
-  </si>
-  <si>
-    <t>Openings - cinemas, performing arts, and some personal care</t>
-  </si>
-  <si>
-    <t>non-essential services</t>
-  </si>
-  <si>
     <t>health_region</t>
   </si>
   <si>
     <t>Middlesex-London</t>
   </si>
   <si>
-    <t>Closings — recreation</t>
-  </si>
-  <si>
     <t>https://www.alberta.ca/enhanced-public-health-measures.aspx</t>
   </si>
   <si>
-    <t>No festivals, events or indoor gatherings.</t>
-  </si>
-  <si>
-    <t>Closings — education</t>
-  </si>
-  <si>
     <t>AB169</t>
   </si>
   <si>
-    <t xml:space="preserve">Tradeshows, markets, sporting events, night clubs, indoor play centres, facilities (concert halls, auditoriums, community halls) closed and performances not permitted. </t>
-  </si>
-  <si>
-    <t>Grades 7-12 students moved to at-home learning.</t>
-  </si>
-  <si>
     <t>Zone</t>
   </si>
   <si>
@@ -30046,9 +30014,6 @@
     <t>Edmonton</t>
   </si>
   <si>
-    <t>Closures — non-essential services and recreation</t>
-  </si>
-  <si>
     <t>Alberta</t>
   </si>
   <si>
@@ -30064,21 +30029,12 @@
     <t>BC179</t>
   </si>
   <si>
-    <t>https://www.cbc.ca/news/canada/british-columbia/b-c-announces-new-covid-19-restrictions-for-metro-vancouver-health-regions-for-2-weeks-as-cases-surge-1.5793969</t>
-  </si>
-  <si>
     <t>https://www.timescolonist.com/b-c-imposes-two-week-covid-restrictions-in-metro-vancouver-health-regions-1.24235161</t>
   </si>
   <si>
     <t>Vancouver Coastal</t>
   </si>
   <si>
-    <t>Conference and convention centres, except where there are courts.</t>
-  </si>
-  <si>
-    <t>Ontario slaps tighter restrictions on bars and restaurants, orders strip clubs to close.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Galas, musical theatre performances, seasonal activities including indoor and outdoor holiday events, silent auctions, movie viewings in cinemas. Businesses, recreation centres or other organizations that organize or operate high risk indoor group physical activities must suspend the following activities: spin, yoga, HIIT. Venues that organize or operate other types of indoor group physical activities must suspend them temporarily while new guidance is being developed. These include: dance studios, gymnastics, cheerleading, martial arts, pilates, strength and conditioning. </t>
     </r>
@@ -30101,31 +30057,592 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Closures — non-essential services and recreation.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Effective until: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dec 21, 2020.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Indoor group exercises, sports and competitions, recreation centres, restrictions to social gatherings and non-essential travel.</t>
-    </r>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Interior</t>
+  </si>
+  <si>
+    <t>Level 4 (Red)</t>
+  </si>
+  <si>
+    <t>Capitale-Nationale</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Restaurants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - dining rooms closed. Bars, breweries, taverns, casinos closed. Microbreweries and distilleries, closed only for on-site eating or drinking. Public activites prohibited. Performance venues, cinemas, theatres and museums closed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Libraries -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> closed other than those maintained by educational institutions, with the exception of loan counters. Non-essential health services. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - only one stable class group is permitted, with no physical distancing requirement, at all times. Extracurricular activities are suspended. Field trips and interscolastic activities are suspended. Loans and rentals of rooms are suspended. Post-secondary - As many activities as possible provided through distance education. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recreation - n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o organized sports, physical or recreational activities are permitted. Indoor and outdoor sports and recreation facilities may remain open for individual activities, but access to locker rooms is not permitted; however, washrooms remain available. Competitions and spectators are not permitted. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Effective until: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jan 11, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <t>QC107</t>
+  </si>
+  <si>
+    <t>Health Region</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/health/health-issues/a-z/2019-coronavirus/progressive-regional-alert-and-intervention-system/map-of-covid-19-alert-levels-by-region/</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>QC108</t>
+  </si>
+  <si>
+    <t>https://globalnews.ca/news/7393715/quebec-coronavirus-oct-13/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Restaurants</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - dining rooms closed. Bars, breweries, taverns, casinos closed. Microbreweries and distilleries, closed only for on-site eating or drinking. Public activites prohibited. Performance venues, cinemas, theatres and museums closed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Libraries -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> closed other than those maintained by educational institutions, with the exception of loan counters. Non-essential health services. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Education</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - only one stable class group is permitted, with no physical distancing requirement, at all times. Extracurricular activities are suspended. Field trips and interscolastic activities are suspended. Loans and rentals of rooms are suspended. Post-secondary - As many activities as possible provided through distance education. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Recreation - n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o organized sports, physical or recreational activities are permitted. Indoor and outdoor sports and recreation facilities may remain open for individual activities, but access to locker rooms is not permitted; however, washrooms remain available. Competitions and spectators are not permitted. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effective until: Oct 28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news/canada/montreal/covid-19-montreal-quebec-city-highest-alert-level-1.5741399</t>
+  </si>
+  <si>
+    <t>QC109</t>
+  </si>
+  <si>
+    <t>Extended - Level 4 (Red)</t>
+  </si>
+  <si>
+    <t>Winnipeg</t>
+  </si>
+  <si>
+    <t>Code Red: Critical</t>
+  </si>
+  <si>
+    <t>MB076</t>
+  </si>
+  <si>
+    <t>https://www.winnipegfreepress.com/special/coronavirus/manitobans-could-face-code-red-extension-based-on-pallisters-gut-feeling-573249841.html</t>
+  </si>
+  <si>
+    <t>Saskatoon</t>
+  </si>
+  <si>
+    <t>SK142</t>
+  </si>
+  <si>
+    <t>Regina</t>
+  </si>
+  <si>
+    <t>https://www.cbc.ca/news/canada/montreal/covid-19-quebec-oct-1-1.5745858</t>
+  </si>
+  <si>
+    <t>Extended Closures</t>
+  </si>
+  <si>
+    <t>https://montreal.ctvnews.ca/red-alert-private-gatherings-banned-as-bars-eat-in-dining-close-in-three-quebec-regions-1.5122144</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Restaurants - dining rooms closed. Bars, breweries, taverns, casinos closed. Microbreweries and distilleries, closed only for on-site eating or drinking. Public activites prohibited. Performance venues, cinemas, theatres and museums closed. Libraries - closed other than those maintained by educational institutions, with the exception of loan counters. Non-essential health services. Education - only one stable class group is permitted, with no physical distancing requirement, at all times. Extracurricular activities are suspended. Field trips and interscolastic activities are suspended. Loans and rentals of rooms are suspended. Post-secondary - As many activities as possible provided through distance education. Recreation - no organized sports, physical or recreational activities are permitted. Indoor and outdoor sports and recreation facilities may remain open for individual activities, but access to locker rooms is not permitted; however, washrooms remain available. Competitions and spectators are not permitted. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Effective until: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Jan 11, 2020. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Effective until:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Oct 28, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <t>MB077</t>
+  </si>
+  <si>
+    <t>MB078</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Government of Ontario
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Updated safety plan for  the resumption of class for the 2020-21 school year: elementary students will return to full-time, in-person classes, and high school students will have a blended approach. Announced a plan to allow licensed child care centres across Ontario to open at full capacity on September 1; EarlyON Child and Family Centres will also be permitted to reopen with in-person programming along with before- and after-school programs for school-aged children, and will be permitted to operate with standard ratios and maximum group size requirements 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Effective until: </t>
+    </r>
+  </si>
+  <si>
+    <t>https://news.ontario.ca/en/release/58548/new-public-health-measures-implemented-provincewide-to-keep-ontarians-safe</t>
+  </si>
+  <si>
+    <t>Closings - non-essential services</t>
+  </si>
+  <si>
+    <t>Closings - recreation</t>
+  </si>
+  <si>
+    <t>Openings - non-essential services</t>
+  </si>
+  <si>
+    <t>Openings - education</t>
+  </si>
+  <si>
+    <t>Openings - daycares</t>
+  </si>
+  <si>
+    <t>Openings - education, day cares</t>
+  </si>
+  <si>
+    <t>Openings - recreation</t>
+  </si>
+  <si>
+    <t>Closings - education</t>
+  </si>
+  <si>
+    <t>https://news.ontario.ca/en/release/58842/ontario-moving-additional-region-to-modified-stage-2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Government of Ontario </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Indoor gyms and fitness centres (i.e., exercise classes and weight and exercise rooms);
+Casinos, bingo halls and other gaming establishments;
+Indoor cinemas, performing arts centres and venues, (except for rehearsing or performing a recorded or broadcasted performance subject to conditions, including no spectators);
+Spectator areas in racing venues;
+Interactive exhibits or exhibits with high risk of personal contact in museums, galleries, zoos, science centres, landmarks, etc.;</t>
+    </r>
+  </si>
+  <si>
+    <t>Government source</t>
+  </si>
+  <si>
+    <t>News source</t>
+  </si>
+  <si>
+    <t>https://news.ontario.ca/en/release/59081/ontario-moves-public-health-unit-regions-into-covid-19-response-framework-to-keep-ontario-safe-and-o</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Who: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Government of Ontario. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply additional measures and restrictions to restaurants, bars and other food and drink establishments (including nightclubs) by prohibiting the sale of alcohol after 11 p.m., and prohibiting the consumption of alcohol on the premises after 12:00 a.m. until 9:00 a.m. (including employees), and requiring establishments to close by 12:00 a.m. and remain closed until 5:00 a.m. except for takeout or delivery;
+Close all strip clubs across the province; and Require businesses or organizations to comply with any advice, recommendations, and instructions issued by the Office of the Chief Medical Officer of Health on screening for COVID-19.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Toronto. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Openings - some indoor dining and fitness classes are permitted.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://news.ontario.ca/en/release/59305/ontario-taking-further-action-to-stop-the-spread-of-covid-19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Toronto and Peel. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Closures - non-essential services and recreation. Retail permitted to be open for curbside pick-up or delivery only, with certain exceptions such as for supermarkets, grocery stores, pharmacies, hardware stores, discount and big box retailers selling groceries, beer, wine and liquor stores, safety supply stores, and convenience stores, which will be allowed to operate at 50 per cent capacity;
+Restaurants, bars, and food and drink establishments will only be able to provide takeout, drive-through and delivery. Indoor and outdoor dining services are prohibited;
+Personal care services closed;
+Casinos, bingo halls and other gaming establishments closed; and
+Indoor sports and recreational facilities, including pools, closed with limited exceptions. Effective until: Dec 21, 2020.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -30134,6 +30651,491 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
+      <t xml:space="preserve">Who: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Government of Ontario </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Conference and convention centres, except where there are courts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Who: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Government of Ontario. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Closure of indoor dining and drink service at restaurants, bars and nightclubs, as well as the closure of indoor gyms, casinos, cinemas, and performing arts centres in Toronto, Peel Region and Ottawa. Interactive exhibits in places like galleries or museums must close.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Windsor-Essex County Health Unit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> All things open with restrictions in place except high risk areas, which remain closed. Night clubs only permitted to operate as restaurant or bar. Oxygen bars, steam rooms and saunas closed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Who: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Government of Ontario. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Openings - cinemas, performing arts, and some personal care.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.regionofwaterloo.ca/Modules/News/index.aspx?keyword=&amp;date=11/01/2020&amp;page=2&amp;newsId=054aa75e-0712-40af-8890-70e6d8a1ce3b</t>
+  </si>
+  <si>
+    <t>Yellow - Protect</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Niagara Region Public Health. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enhanced targeted enforcement, fines and enhanced education to limit further transmission. Public health measures for high risk settings.</t>
+    </r>
+  </si>
+  <si>
+    <t>Green - Prevent</t>
+  </si>
+  <si>
+    <t>Red - Control</t>
+  </si>
+  <si>
+    <t>Orange - Restrict</t>
+  </si>
+  <si>
+    <t>Grey - Lockdown</t>
+  </si>
+  <si>
+    <t>Who: Niagara Region Public Health. What: Recreation and services permited with restrictions. Oxygen bars, steam rooms, saunas, bath houses and other adult venues, closed. Public health measures for high risk settings.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> City of Windsor. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recreation and services permited with restrictions. Oxygen bars, steam rooms, saunas, bath houses and other adult venues, closed. Public health measures for high risk settings.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.hamilton.ca/government-information/news-centre/news-releases/city-hamilton-moves-control-red-category-in-0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Middlesex-London Health Unit. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recreation and services permited with restrictions. Oxygen bars, steam rooms, saunas, bath houses and other adult venues, closed. Public health measures for high risk settings.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Who:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Durham Region Health Department. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Recreation and services permited with restrictions. Oxygen bars, steam rooms, saunas, bath houses and other adult venues, closed. Public health measures for high risk settings.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.durham.ca/en/news/durham-region-moves-into-orange-restrict-category.aspx</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grades 7-12 students moved to at-home learning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tradeshows, markets, sporting events, night clubs, indoor play centres, facilities (concert halls, auditoriums, community halls) closed and performances not permitted. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No festivals, events or indoor gatherings.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No festivals, events or indoor gatherings.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www2.gov.bc.ca/assets/gov/health/about-bc-s-health-care-system/office-of-the-provincial-health-officer/covid-19/covid-19-pho-order-vch-fh.pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Indoor group exercises, sports and competitions, recreation centres, restrictions to social gatherings and non-essential travel.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1A1A1A"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve"> Effective until:</t>
     </r>
     <r>
@@ -30147,107 +31149,125 @@
     </r>
   </si>
   <si>
-    <t>Health Authority</t>
-  </si>
-  <si>
-    <t>Island</t>
-  </si>
-  <si>
-    <t>Interior</t>
-  </si>
-  <si>
-    <t>Level 4 (Red)</t>
-  </si>
-  <si>
-    <t>Capitale-Nationale</t>
-  </si>
-  <si>
-    <t>https://www.mtl.org/en/covid-19</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Restaurants</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - dining rooms closed. Bars, breweries, taverns, casinos closed. Microbreweries and distilleries, closed only for on-site eating or drinking. Public activites prohibited. Performance venues, cinemas, theatres and museums closed. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Libraries -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> closed other than those maintained by educational institutions, with the exception of loan counters. Non-essential health services. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Education</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - only one stable class group is permitted, with no physical distancing requirement, at all times. Extracurricular activities are suspended. Field trips and interscolastic activities are suspended. Loans and rentals of rooms are suspended. Post-secondary - As many activities as possible provided through distance education. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recreation - n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">o organized sports, physical or recreational activities are permitted. Indoor and outdoor sports and recreation facilities may remain open for individual activities, but access to locker rooms is not permitted; however, washrooms remain available. Competitions and spectators are not permitted. </t>
+    <t>https://www2.gov.bc.ca/assets/gov/health/about-bc-s-health-care-system/office-of-the-provincial-health-officer/covid-19/covid-19-pho-order-gatherings-events.pdf</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">All personal service businesses, such as hair salons, must close; All religious and cultural gathering places must close, but can provide services virtually; Gyms and fitness centres must close; Restaurants need to close to in-person dining, but can provide delivery, drive-thru and takeout; and Recreational activities, sport facilities, casinos, museums, galleries, libraries, movie theatres and concert halls must close. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Effective until: D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ec 11, 2020. </t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.gov.mb.ca/covid19/restartmb/prs/orders/essential-business.html</t>
+  </si>
+  <si>
+    <t>MB079</t>
+  </si>
+  <si>
+    <t>https://www.gov.mb.ca/asset_library/en/proactive/2020_2021/orders-soe-11222020.pdf</t>
+  </si>
+  <si>
+    <r>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Essential retail businesses, shopping centres and malls. Food courts remain closed. All other businesses in Schedule A may open. Child care and education. Indoor recreational activites and some outdoor remain prohibited.</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.gov.mb.ca/covid19/restartmb/prs/winnipeg/index.html</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/government/news-and-media/2020/november/25/covid-19-update-new-measures-in-effect-november-27</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Who: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Government of Saskatchewan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All team/group sports, activities, games, competitions, recitals, practices, etc. are suspended, including amateur and recreational leagues for all age groups.  </t>
     </r>
     <r>
       <rPr>
@@ -30268,249 +31288,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Jan 11, 2020.</t>
-    </r>
-  </si>
-  <si>
-    <t>QC107</t>
-  </si>
-  <si>
-    <t>Health Region</t>
-  </si>
-  <si>
-    <t>https://www.quebec.ca/en/health/health-issues/a-z/2019-coronavirus/progressive-regional-alert-and-intervention-system/map-of-covid-19-alert-levels-by-region/</t>
-  </si>
-  <si>
-    <t>Montréal</t>
-  </si>
-  <si>
-    <t>QC108</t>
-  </si>
-  <si>
-    <t>https://globalnews.ca/news/7393715/quebec-coronavirus-oct-13/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Restaurants</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - dining rooms closed. Bars, breweries, taverns, casinos closed. Microbreweries and distilleries, closed only for on-site eating or drinking. Public activites prohibited. Performance venues, cinemas, theatres and museums closed. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Libraries -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> closed other than those maintained by educational institutions, with the exception of loan counters. Non-essential health services. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Education</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - only one stable class group is permitted, with no physical distancing requirement, at all times. Extracurricular activities are suspended. Field trips and interscolastic activities are suspended. Loans and rentals of rooms are suspended. Post-secondary - As many activities as possible provided through distance education. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Recreation - n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">o organized sports, physical or recreational activities are permitted. Indoor and outdoor sports and recreation facilities may remain open for individual activities, but access to locker rooms is not permitted; however, washrooms remain available. Competitions and spectators are not permitted. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Effective until: Oct 28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, 2020.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.cbc.ca/news/canada/montreal/covid-19-montreal-quebec-city-highest-alert-level-1.5741399</t>
-  </si>
-  <si>
-    <t>QC109</t>
-  </si>
-  <si>
-    <t>Extended - Level 4 (Red)</t>
-  </si>
-  <si>
-    <t>Winnipeg</t>
-  </si>
-  <si>
-    <t>Code Red: Critical</t>
-  </si>
-  <si>
-    <t>MB076</t>
-  </si>
-  <si>
-    <t>https://winnipeg.ctvnews.ca/manitoba-officially-under-code-red-restrictions-after-change-to-gathering-limits-1.5185744</t>
-  </si>
-  <si>
-    <t>https://www.winnipegfreepress.com/special/coronavirus/manitobans-could-face-code-red-extension-based-on-pallisters-gut-feeling-573249841.html</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All personal service businesses, such as hair salons, must close; All religious and cultural gathering places must close, but can provide services virtually; Gyms and fitness centres must close; Restaurants need to close to in-person dining, but can provide delivery, drive-thru and takeout; and Recreational activities, sport facilities, casinos, museums, galleries, libraries, movie theatres and concert halls must close. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Effective until: D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ec 11, 2020. </t>
-    </r>
-  </si>
-  <si>
-    <t>Saskatoon</t>
-  </si>
-  <si>
-    <t>SK142</t>
-  </si>
-  <si>
-    <t>Regina</t>
-  </si>
-  <si>
-    <t>https://www.cbc.ca/news/canada/montreal/covid-19-quebec-oct-1-1.5745858</t>
-  </si>
-  <si>
-    <t>Extended Closures</t>
-  </si>
-  <si>
-    <t>https://montreal.ctvnews.ca/red-alert-private-gatherings-banned-as-bars-eat-in-dining-close-in-three-quebec-regions-1.5122144</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Restaurants - dining rooms closed. Bars, breweries, taverns, casinos closed. Microbreweries and distilleries, closed only for on-site eating or drinking. Public activites prohibited. Performance venues, cinemas, theatres and museums closed. Libraries - closed other than those maintained by educational institutions, with the exception of loan counters. Non-essential health services. Education - only one stable class group is permitted, with no physical distancing requirement, at all times. Extracurricular activities are suspended. Field trips and interscolastic activities are suspended. Loans and rentals of rooms are suspended. Post-secondary - As many activities as possible provided through distance education. Recreation - no organized sports, physical or recreational activities are permitted. Indoor and outdoor sports and recreation facilities may remain open for individual activities, but access to locker rooms is not permitted; however, washrooms remain available. Competitions and spectators are not permitted. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Effective until: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Jan 11, 2020. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Effective until:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Oct 28, 2020.</t>
-    </r>
-  </si>
-  <si>
-    <t>https://www.newswire.ca/fr/news-releases/pandemie-de-la-covid-19-deux-nouvelles-mrc-de-la-region-de-lanaudiere-passent-au-palier-rouge-868936829.html</t>
-  </si>
-  <si>
-    <t>MB077</t>
-  </si>
-  <si>
-    <t>MB078</t>
+      <t xml:space="preserve"> Dec 17, 2020.</t>
+    </r>
+  </si>
+  <si>
+    <t>NS108</t>
+  </si>
+  <si>
+    <t>https://novascotia.ca/coronavirus/county-restrictions/halifax/</t>
+  </si>
+  <si>
+    <t>Closures - recreation</t>
+  </si>
+  <si>
+    <r>
+      <t>What:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Extra-curricular activities between schools are not permitted (like clubs, sports and other in-school activities). Dine-in restaurants (take-out only), events, festivals, sport activities, casinos, video lottery terminals (VLTs). Personal services businesses (like hairstylists, barber shops, spas, estheticians and nail salons) can’t provide services that require a client to remove their mask
+What: Released plan and safety guidance for elementary, middle and high schools to open in the fall with safety measures in place: students in K-8 will have in-school learning, and students in 9-12 will have a blended approach primarily using remote learning
+Effective until:</t>
+    </r>
+  </si>
+  <si>
+    <t>https://novascotia.ca/coronavirus/restriction-updates/</t>
+  </si>
+  <si>
+    <t>What: Community-based adult day programs can resume with an approved plan that meets public health guidelines.</t>
+  </si>
+  <si>
+    <t>NS110</t>
+  </si>
+  <si>
+    <t>NS109</t>
+  </si>
+  <si>
+    <t>What: Day programs, supported employment and social enterprise service providers funded through the Department of Community Services’ Disability Support Program can open with an approved plan that meets public health guidelines.</t>
   </si>
 </sst>
 </file>
@@ -30522,7 +31340,7 @@
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -30641,8 +31459,23 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -30659,6 +31492,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -30848,7 +31693,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -31141,8 +31986,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -31152,51 +31995,144 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -31522,8 +32458,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L540"/>
   <sheetViews>
-    <sheetView topLeftCell="A499" workbookViewId="0">
-      <selection activeCell="A502" sqref="A502:XFD502"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A470" sqref="A470:XFD470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -48426,7 +49362,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="470" spans="1:12" ht="180" hidden="1">
+    <row r="470" spans="1:12" ht="180">
       <c r="A470" s="61" t="s">
         <v>1389</v>
       </c>
@@ -49398,7 +50334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="497" spans="1:12" ht="75">
+    <row r="497" spans="1:12" ht="75" hidden="1">
       <c r="A497" s="61" t="s">
         <v>1472</v>
       </c>
@@ -49434,7 +50370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="498" spans="1:12" ht="68">
+    <row r="498" spans="1:12" ht="68" hidden="1">
       <c r="A498" s="61" t="s">
         <v>1475</v>
       </c>
@@ -49470,7 +50406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="499" spans="1:12" ht="165">
+    <row r="499" spans="1:12" ht="165" hidden="1">
       <c r="A499" s="61" t="s">
         <v>1477</v>
       </c>
@@ -49506,7 +50442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="500" spans="1:12" ht="187">
+    <row r="500" spans="1:12" ht="187" hidden="1">
       <c r="A500" s="61" t="s">
         <v>1479</v>
       </c>
@@ -49542,7 +50478,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="501" spans="1:12" ht="187">
+    <row r="501" spans="1:12" ht="187" hidden="1">
       <c r="A501" s="61" t="s">
         <v>1483</v>
       </c>
@@ -49578,7 +50514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:12" ht="75">
+    <row r="502" spans="1:12" ht="75" hidden="1">
       <c r="A502" s="61" t="s">
         <v>1485</v>
       </c>
@@ -50815,7 +51751,12 @@
   <autoFilter ref="A1:L539" xr:uid="{AB75D7BF-5E1B-904A-9284-D1162678E9FC}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Sask."/>
+        <filter val="N.S."/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <dateGroupItem year="2020" month="7" day="22" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
@@ -51484,10 +52425,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB1EB7-EFBB-BE4C-BF33-3C1CB63F305E}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -51495,3190 +52436,3514 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="91">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="107" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="107" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="107" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="107" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A2" s="114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B2" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2" s="115" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D2" s="116">
+        <v>44032</v>
+      </c>
+      <c r="E2" s="116">
+        <v>44036</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H2" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I2" s="119" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J2" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K2" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="125" customFormat="1">
+      <c r="A3" s="122"/>
+      <c r="B3" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C3" s="118" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D3" s="116">
+        <v>44120</v>
+      </c>
+      <c r="E3" s="116">
+        <v>44123</v>
+      </c>
+      <c r="F3" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="142" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H3" s="124" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I3" s="119" t="s">
+        <v>1605</v>
+      </c>
+      <c r="J3" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="121" customFormat="1">
+      <c r="A4" s="122" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="118" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D4" s="116">
+        <v>44035</v>
+      </c>
+      <c r="E4" s="116">
+        <v>44037</v>
+      </c>
+      <c r="F4" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="123" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H4" s="152" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I4" s="119" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J4" s="119" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K4" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="118" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="121" customFormat="1">
+      <c r="A5" s="122" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="118" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D5" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E5" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F5" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="123" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H5" s="152" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I5" s="119" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J5" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="121" customFormat="1">
+      <c r="A6" s="114" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B6" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D6" s="133">
+        <v>44137</v>
+      </c>
+      <c r="E6" s="133">
+        <v>44147</v>
+      </c>
+      <c r="F6" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="117" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H6" s="142" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I6" s="134" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J6" s="134" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K6" s="115" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L6" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="121" customFormat="1">
+      <c r="A7" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B7" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D7" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E7" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F7" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H7" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I7" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J7" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="131" customFormat="1">
+      <c r="A8" s="126" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B8" s="127" t="s">
+        <v>712</v>
+      </c>
+      <c r="C8" s="127" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D8" s="145">
+        <v>44042</v>
+      </c>
+      <c r="E8" s="145">
+        <v>44042</v>
+      </c>
+      <c r="F8" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="146" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H8" s="127" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I8" s="147" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J8" s="148" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="129" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="121" customFormat="1">
+      <c r="A9" s="114" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C9" s="134" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D9" s="133">
+        <v>44054</v>
+      </c>
+      <c r="E9" s="133">
+        <v>44055</v>
+      </c>
+      <c r="F9" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="139" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H9" s="139" t="s">
+        <v>1626</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J9" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="121" customFormat="1">
+      <c r="A10" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D10" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E10" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F10" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="129" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H10" s="130" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I10" s="131" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J10" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K10" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="121" customFormat="1">
+      <c r="A11" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D11" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E11" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H11" s="135" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I11" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J11" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="121" customFormat="1">
+      <c r="A12" s="114" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133">
+        <v>44142</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H12" s="135" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I12" s="134" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J12" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="125" customFormat="1">
+      <c r="A13" s="122" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C13" s="142" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D13" s="143">
+        <v>44162</v>
+      </c>
+      <c r="E13" s="143">
+        <v>44165</v>
+      </c>
+      <c r="F13" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="142" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H13" s="124" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I13" s="142" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J13" s="142" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K13" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="121" customFormat="1">
+      <c r="A14" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B14" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C14" s="115" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D14" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E14" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F14" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I14" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J14" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="121" customFormat="1">
+      <c r="A15" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C15" s="115" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D15" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E15" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F15" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H15" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I15" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J15" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="121" customFormat="1">
+      <c r="A16" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C16" s="115" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D16" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E16" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F16" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H16" s="130" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I16" s="131" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J16" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="121" customFormat="1">
+      <c r="A17" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C17" s="115" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D17" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E17" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F17" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H17" s="135" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I17" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J17" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="125" customFormat="1">
+      <c r="A18" s="122" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B18" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C18" s="142" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143">
+        <v>44158</v>
+      </c>
+      <c r="F18" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="142" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H18" s="124" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I18" s="142" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J18" s="142" t="s">
+        <v>1618</v>
+      </c>
+      <c r="K18" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A19" s="114" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B19" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D19" s="144">
+        <v>44034</v>
+      </c>
+      <c r="E19" s="144">
+        <v>44034</v>
+      </c>
+      <c r="F19" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H19" s="152" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I19" s="153" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J19" s="154" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K19" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A20" s="114" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B20" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D20" s="144">
+        <v>44041</v>
+      </c>
+      <c r="E20" s="144">
+        <v>44041</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="152" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I20" s="153" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J20" s="154" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K20" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="121" customFormat="1">
+      <c r="A21" s="114" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B21" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="134" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D21" s="133">
+        <v>44142</v>
+      </c>
+      <c r="E21" s="133">
+        <v>44142</v>
+      </c>
+      <c r="F21" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H21" s="135" t="s">
+        <v>1636</v>
+      </c>
+      <c r="I21" s="134" t="s">
+        <v>1635</v>
+      </c>
+      <c r="J21" s="134" t="s">
+        <v>1564</v>
+      </c>
+      <c r="K21" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A22" s="114" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B22" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D22" s="134"/>
+      <c r="E22" s="138">
+        <v>44154</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H22" s="118" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I22" s="134" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J22" s="136" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K22" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="125" customFormat="1">
+      <c r="A23" s="122" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B23" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C23" s="118" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D23" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E23" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F23" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="123" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H23" s="118" t="s">
+        <v>1595</v>
+      </c>
+      <c r="I23" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J23" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K23" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="125" customFormat="1">
+      <c r="A24" s="122" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B24" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C24" s="118" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D24" s="116">
+        <v>44041</v>
+      </c>
+      <c r="E24" s="116">
+        <v>44043</v>
+      </c>
+      <c r="F24" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="123" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H24" s="118" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I24" s="119" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J24" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K24" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="131" customFormat="1">
+      <c r="A25" s="126" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B25" s="127" t="s">
+        <v>712</v>
+      </c>
+      <c r="C25" s="127" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D25" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E25" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F25" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="129" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H25" s="130" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I25" s="131" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J25" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K25" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A26" s="114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C26" s="118" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D26" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E26" s="133">
+        <v>44114</v>
+      </c>
+      <c r="F26" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H26" s="134" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I26" s="134" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J26" s="134" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K26" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="121" customFormat="1">
+      <c r="A27" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B27" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D27" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E27" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F27" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H27" s="135" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I27" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J27" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="97" customFormat="1">
+      <c r="A28" s="140" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B28" s="110" t="s">
+        <v>712</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D28" s="111">
+        <v>44138</v>
+      </c>
+      <c r="E28" s="111">
+        <v>44149</v>
+      </c>
+      <c r="F28" s="103" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="149" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H28" s="141" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I28" s="101" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J28" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="125" customFormat="1">
+      <c r="A29" s="122" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B29" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C29" s="142" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D29" s="143">
+        <v>44155</v>
+      </c>
+      <c r="E29" s="143">
+        <v>44158</v>
+      </c>
+      <c r="F29" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="142" t="s">
+        <v>1624</v>
+      </c>
+      <c r="H29" s="124" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I29" s="125" t="s">
+        <v>1612</v>
+      </c>
+      <c r="J29" s="142" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K29" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="125" customFormat="1">
+      <c r="A30" s="122" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B30" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" s="142" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D30" s="143"/>
+      <c r="E30" s="143">
+        <v>44155</v>
+      </c>
+      <c r="F30" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="142" t="s">
+        <v>1583</v>
+      </c>
+      <c r="H30" s="161" t="s">
+        <v>1642</v>
+      </c>
+      <c r="I30" s="125" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J30" s="142" t="s">
+        <v>1641</v>
+      </c>
+      <c r="K30" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="121" customFormat="1">
+      <c r="A31" s="122" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B31" s="118" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C31" s="118" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D31" s="116">
+        <v>44033</v>
+      </c>
+      <c r="E31" s="116">
+        <v>44033</v>
+      </c>
+      <c r="F31" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="124" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H31" s="122" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I31" s="160" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J31" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="121" customFormat="1">
+      <c r="A32" s="122" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B32" s="118" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C32" s="118" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D32" s="116">
+        <v>44033</v>
+      </c>
+      <c r="E32" s="116">
+        <v>44033</v>
+      </c>
+      <c r="F32" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="124" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H32" s="122" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I32" s="160" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J32" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="121" customFormat="1">
+      <c r="A33" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B33" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C33" s="115" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D33" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E33" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F33" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H33" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I33" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J33" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="121" customFormat="1">
+      <c r="A34" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B34" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D34" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E34" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F34" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="117" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H34" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I34" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J34" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="121" customFormat="1">
+      <c r="A35" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B35" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D35" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E35" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F35" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="129" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H35" s="130" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I35" s="131" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J35" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K35" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A36" s="114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B36" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C36" s="134" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D36" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E36" s="133">
+        <v>44114</v>
+      </c>
+      <c r="F36" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H36" s="134" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I36" s="134" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J36" s="134" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K36" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="121" customFormat="1">
+      <c r="A37" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B37" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D37" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E37" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F37" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H37" s="135" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I37" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J37" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="121" customFormat="1">
+      <c r="A38" s="114" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B38" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C38" s="134" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D38" s="133">
+        <v>44138</v>
+      </c>
+      <c r="E38" s="133">
+        <v>44142</v>
+      </c>
+      <c r="F38" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="139" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H38" s="139" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I38" s="121" t="s">
+        <v>1609</v>
+      </c>
+      <c r="J38" s="134" t="s">
+        <v>1524</v>
+      </c>
+      <c r="K38" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="121" customFormat="1">
+      <c r="A39" s="114" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B39" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C39" s="115" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D39" s="116">
+        <v>44025</v>
+      </c>
+      <c r="E39" s="116">
+        <v>44039</v>
+      </c>
+      <c r="F39" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="117" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H39" s="118" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I39" s="119" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J39" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A40" s="114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B40" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C40" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D40" s="116">
+        <v>44032</v>
+      </c>
+      <c r="E40" s="116">
+        <v>44036</v>
+      </c>
+      <c r="F40" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H40" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I40" s="119" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J40" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K40" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="121" customFormat="1">
+      <c r="A41" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B41" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C41" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D41" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E41" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F41" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H41" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I41" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J41" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="121" customFormat="1">
+      <c r="A42" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B42" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C42" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D42" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E42" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F42" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="117" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H42" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I42" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J42" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="121" customFormat="1">
+      <c r="A43" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B43" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C43" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D43" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E43" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F43" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="129" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H43" s="130" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I43" s="131" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J43" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K43" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A44" s="114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B44" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C44" s="134" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D44" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E44" s="133">
+        <v>44114</v>
+      </c>
+      <c r="F44" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H44" s="134" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I44" s="134" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J44" s="134" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K44" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="121" customFormat="1">
+      <c r="A45" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B45" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C45" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D45" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E45" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F45" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H45" s="135" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I45" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J45" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="150" customFormat="1">
+      <c r="A46" s="134"/>
+      <c r="B46" s="134" t="s">
+        <v>712</v>
+      </c>
+      <c r="C46" s="134" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D46" s="133">
+        <v>44141</v>
+      </c>
+      <c r="E46" s="133">
+        <v>44142</v>
+      </c>
+      <c r="F46" s="134" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="134" t="s">
+        <v>1619</v>
+      </c>
+      <c r="H46" s="134" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I46" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J46" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="121" customFormat="1">
+      <c r="A47" s="114" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B47" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C47" s="134" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D47" s="133">
+        <v>44148</v>
+      </c>
+      <c r="E47" s="133">
+        <v>44151</v>
+      </c>
+      <c r="F47" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="134" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H47" s="134" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I47" s="134" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J47" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L47" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="121" customFormat="1">
+      <c r="A48" s="114"/>
+      <c r="B48" s="115" t="s">
+        <v>950</v>
+      </c>
+      <c r="C48" s="115" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D48" s="144">
+        <v>44104</v>
+      </c>
+      <c r="E48" s="144">
+        <v>44105</v>
+      </c>
+      <c r="F48" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="117" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H48" s="152" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I48" s="153" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J48" s="154" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K48" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L48" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="97" customFormat="1" ht="30">
+      <c r="A49" s="155" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B49" s="112" t="s">
+        <v>950</v>
+      </c>
+      <c r="C49" s="101" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D49" s="111">
+        <v>44102</v>
+      </c>
+      <c r="E49" s="111">
+        <v>44132</v>
+      </c>
+      <c r="F49" s="156" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G49" s="156" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H49" s="157" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I49" s="101" t="s">
+        <v>1579</v>
+      </c>
+      <c r="J49" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="L49" s="112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="97" customFormat="1" ht="30">
+      <c r="A50" s="109" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B50" s="112" t="s">
+        <v>950</v>
+      </c>
+      <c r="C50" s="101" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D50" s="111">
+        <v>44154</v>
+      </c>
+      <c r="E50" s="111">
+        <v>44154</v>
+      </c>
+      <c r="F50" s="156" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G50" s="156" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H50" s="157" t="s">
+        <v>1571</v>
+      </c>
+      <c r="I50" s="157" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J50" s="157" t="s">
+        <v>1574</v>
+      </c>
+      <c r="K50" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="L50" s="112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="121" customFormat="1">
+      <c r="A51" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B51" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C51" s="115" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D51" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E51" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F51" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H51" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I51" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J51" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" s="121" customFormat="1">
+      <c r="A52" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B52" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C52" s="115" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D52" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E52" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F52" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G52" s="117" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H52" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I52" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J52" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="121" customFormat="1">
+      <c r="A53" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B53" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C53" s="115" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D53" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E53" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F53" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="129" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H53" s="130" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I53" s="131" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J53" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K53" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="121" customFormat="1">
+      <c r="A54" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B54" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C54" s="115" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D54" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E54" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F54" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H54" s="135" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I54" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J54" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A55" s="114" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B55" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="115" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D55" s="144">
+        <v>44034</v>
+      </c>
+      <c r="E55" s="144">
+        <v>44034</v>
+      </c>
+      <c r="F55" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H55" s="152" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I55" s="153" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J55" s="154" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K55" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="121" customFormat="1">
+      <c r="A56" s="114" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B56" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="115" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D56" s="144">
+        <v>44041</v>
+      </c>
+      <c r="E56" s="144">
+        <v>44041</v>
+      </c>
+      <c r="F56" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G56" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H56" s="152" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I56" s="153" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J56" s="154" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K56" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="121" customFormat="1">
+      <c r="A57" s="114" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B57" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="115" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D57" s="134"/>
+      <c r="E57" s="138">
+        <v>44154</v>
+      </c>
+      <c r="F57" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H57" s="118" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I57" s="134" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J57" s="136" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K57" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A58" s="114" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B58" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="115" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D58" s="144">
+        <v>44034</v>
+      </c>
+      <c r="E58" s="144">
+        <v>44034</v>
+      </c>
+      <c r="F58" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G58" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H58" s="152" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I58" s="153" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J58" s="154" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K58" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="121" customFormat="1">
+      <c r="A59" s="114" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B59" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="115" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D59" s="144">
+        <v>44041</v>
+      </c>
+      <c r="E59" s="144">
+        <v>44041</v>
+      </c>
+      <c r="F59" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H59" s="152" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I59" s="153" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J59" s="154" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K59" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="121" customFormat="1">
+      <c r="A60" s="114" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B60" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="115" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D60" s="134"/>
+      <c r="E60" s="138">
+        <v>44154</v>
+      </c>
+      <c r="F60" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H60" s="118" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I60" s="134" t="s">
+        <v>1561</v>
+      </c>
+      <c r="J60" s="136" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K60" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="121" customFormat="1">
+      <c r="A61" s="114"/>
+      <c r="B61" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C61" s="134" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D61" s="134"/>
+      <c r="E61" s="138">
+        <v>44172</v>
+      </c>
+      <c r="F61" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="134" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H61" s="134" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I61" s="134" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J61" s="136"/>
+      <c r="K61" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A62" s="114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B62" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C62" s="115" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D62" s="116">
+        <v>44032</v>
+      </c>
+      <c r="E62" s="116">
+        <v>44036</v>
+      </c>
+      <c r="F62" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G62" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H62" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I62" s="119" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J62" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K62" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="L62" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="121" customFormat="1">
+      <c r="A63" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B63" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C63" s="115" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D63" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E63" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F63" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H63" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I63" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J63" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" s="121" customFormat="1">
+      <c r="A64" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B64" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C64" s="115" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D64" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E64" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F64" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64" s="117" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H64" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I64" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J64" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="121" customFormat="1">
+      <c r="A65" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B65" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C65" s="115" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D65" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E65" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F65" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="129" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H65" s="130" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I65" s="131" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J65" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K65" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A66" s="114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B66" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C66" s="134" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D66" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E66" s="133">
+        <v>44114</v>
+      </c>
+      <c r="F66" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H66" s="134" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I66" s="134" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J66" s="134" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K66" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="121" customFormat="1">
+      <c r="A67" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B67" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C67" s="115" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D67" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E67" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F67" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H67" s="135" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I67" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J67" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="125" customFormat="1">
+      <c r="A68" s="122" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B68" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C68" s="142" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D68" s="143">
+        <v>44148</v>
+      </c>
+      <c r="E68" s="143">
+        <v>44151</v>
+      </c>
+      <c r="F68" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="142" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H68" s="124" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I68" s="125" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J68" s="142" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K68" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L68" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="121" customFormat="1">
+      <c r="A69" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B69" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="134" t="s">
         <v>1558</v>
       </c>
-      <c r="D1" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="109" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="109" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="110" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="91" t="s">
+      <c r="D69" s="133"/>
+      <c r="E69" s="133">
+        <v>44159</v>
+      </c>
+      <c r="F69" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H69" s="134" t="s">
+        <v>1634</v>
+      </c>
+      <c r="I69" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J69" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L69" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="121" customFormat="1">
+      <c r="A70" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B70" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="134" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D70" s="134"/>
+      <c r="E70" s="133">
+        <v>44162</v>
+      </c>
+      <c r="F70" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="134" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H70" s="134" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I70" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J70" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L70" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="121" customFormat="1">
+      <c r="A71" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B71" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="134" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D71" s="134"/>
+      <c r="E71" s="133">
+        <v>44165</v>
+      </c>
+      <c r="F71" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="134" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H71" s="134" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I71" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J71" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L71" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A72" s="114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B72" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C72" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D72" s="116">
+        <v>44032</v>
+      </c>
+      <c r="E72" s="116">
+        <v>44036</v>
+      </c>
+      <c r="F72" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H72" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I72" s="119" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J72" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K72" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="L72" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="121" customFormat="1">
+      <c r="A73" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B73" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C73" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D73" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E73" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F73" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G73" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H73" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I73" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J73" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="121" customFormat="1">
+      <c r="A74" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B74" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C74" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D74" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E74" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F74" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G74" s="117" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H74" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I74" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J74" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="121" customFormat="1">
+      <c r="A75" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B75" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C75" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D75" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E75" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F75" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="129" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H75" s="130" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I75" s="131" t="s">
+        <v>1596</v>
+      </c>
+      <c r="J75" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K75" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A76" s="114" t="s">
         <v>1505</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B76" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D2" s="87">
+      <c r="C76" s="134" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D76" s="133">
         <v>44113</v>
       </c>
-      <c r="E2" s="87">
+      <c r="E76" s="133">
         <v>44114</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F76" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G76" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H76" s="134" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I76" s="134" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J76" s="134" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K76" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="121" customFormat="1">
+      <c r="A77" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B77" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C77" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D77" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E77" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F77" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H77" s="135" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I77" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J77" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="121" customFormat="1">
+      <c r="A78" s="114" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B78" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C78" s="134" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D78" s="133">
+        <v>44148</v>
+      </c>
+      <c r="E78" s="133">
+        <v>44151</v>
+      </c>
+      <c r="F78" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="134" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H78" s="134" t="s">
+        <v>1629</v>
+      </c>
+      <c r="I78" s="134" t="s">
+        <v>1630</v>
+      </c>
+      <c r="J78" s="134" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K78" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="121" customFormat="1">
+      <c r="A79" s="159" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B79" s="115" t="s">
+        <v>950</v>
+      </c>
+      <c r="C79" s="134" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D79" s="133">
+        <v>44123</v>
+      </c>
+      <c r="E79" s="133">
+        <v>44126</v>
+      </c>
+      <c r="F79" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="117" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H79" s="142" t="s">
+        <v>1578</v>
+      </c>
+      <c r="I79" s="142" t="s">
+        <v>1574</v>
+      </c>
+      <c r="J79" s="142" t="s">
+        <v>1577</v>
+      </c>
+      <c r="K79" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L79" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="121" customFormat="1">
+      <c r="A80" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B80" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="134" t="s">
         <v>1557</v>
       </c>
-      <c r="H2" s="92" t="s">
-        <v>1500</v>
-      </c>
-      <c r="I2" s="92" t="s">
-        <v>1501</v>
-      </c>
-      <c r="J2" s="92" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K2" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L2" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="113" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C3" s="92" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D3" s="87">
-        <v>44138</v>
-      </c>
-      <c r="E3" s="87">
-        <v>44149</v>
-      </c>
-      <c r="F3" s="89" t="s">
+      <c r="D80" s="133"/>
+      <c r="E80" s="133">
+        <v>44159</v>
+      </c>
+      <c r="F80" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H80" s="134" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I80" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J80" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L80" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="121" customFormat="1">
+      <c r="A81" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B81" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="134" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D81" s="134"/>
+      <c r="E81" s="133">
+        <v>44162</v>
+      </c>
+      <c r="F81" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="134" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H81" s="134" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I81" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J81" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L81" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="125" customFormat="1">
+      <c r="A82" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B82" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="134" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D82" s="134"/>
+      <c r="E82" s="133">
+        <v>44165</v>
+      </c>
+      <c r="F82" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="134" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H82" s="134" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I82" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J82" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="L82" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="125" customFormat="1">
+      <c r="A83" s="114" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B83" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="115" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D83" s="144">
+        <v>44033</v>
+      </c>
+      <c r="E83" s="144">
+        <v>44033</v>
+      </c>
+      <c r="F83" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="92" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H3" s="116" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I3" s="92" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J3" s="106" t="s">
+      <c r="G83" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H83" s="118" t="s">
+        <v>1289</v>
+      </c>
+      <c r="I83" s="119" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J83" s="119" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K83" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="125" customFormat="1">
+      <c r="A84" s="114" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B84" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="115" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D84" s="144">
+        <v>44047</v>
+      </c>
+      <c r="E84" s="144">
+        <v>44047</v>
+      </c>
+      <c r="F84" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G84" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H84" s="118" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I84" s="119" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J84" s="119" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K84" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="L84" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="125" customFormat="1">
+      <c r="A85" s="114" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B85" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="115" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D85" s="144">
+        <v>44050</v>
+      </c>
+      <c r="E85" s="144">
+        <v>44050</v>
+      </c>
+      <c r="F85" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H85" s="118" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I85" s="119" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J85" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L3" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="91" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D4" s="115">
-        <v>44155</v>
-      </c>
-      <c r="E4" s="115">
-        <v>44158</v>
-      </c>
-      <c r="F4" s="89" t="s">
+      <c r="K85" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="115" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" s="125" customFormat="1">
+      <c r="A86" s="122" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B86" s="118" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C86" s="142" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D86" s="143">
+        <v>44160</v>
+      </c>
+      <c r="E86" s="143">
+        <v>44162</v>
+      </c>
+      <c r="F86" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="106" t="s">
-        <v>1511</v>
-      </c>
-      <c r="H4" s="89" t="s">
-        <v>1582</v>
-      </c>
-      <c r="I4" s="106" t="s">
-        <v>1527</v>
-      </c>
-      <c r="J4" s="106" t="s">
+      <c r="G86" s="142" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H86" s="142" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I86" s="163" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J86" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L4" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="91" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C5" s="92" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D5" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E5" s="87">
-        <v>44114</v>
-      </c>
-      <c r="F5" s="89" t="s">
+      <c r="K86" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="125" customFormat="1">
+      <c r="A87" s="122" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B87" s="118" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C87" s="142" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D87" s="143">
+        <v>44160</v>
+      </c>
+      <c r="E87" s="143">
+        <v>44162</v>
+      </c>
+      <c r="F87" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="90" t="s">
-        <v>1557</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>1500</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>1501</v>
-      </c>
-      <c r="J5" s="92" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L5" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="91" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D6" s="87">
-        <v>44138</v>
-      </c>
-      <c r="E6" s="87">
-        <v>44142</v>
-      </c>
-      <c r="F6" s="89" t="s">
+      <c r="G87" s="142" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H87" s="142" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I87" s="163" t="s">
+        <v>1645</v>
+      </c>
+      <c r="J87" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="K87" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" s="125" customFormat="1">
+      <c r="A88" s="122" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B88" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="C88" s="118" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D88" s="116">
+        <v>44034</v>
+      </c>
+      <c r="E88" s="116">
+        <v>44034</v>
+      </c>
+      <c r="F88" s="118" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="92" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H6" s="116" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I6" s="92" t="s">
-        <v>1524</v>
-      </c>
-      <c r="J6" s="106" t="s">
+      <c r="G88" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="H88" s="122" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I88" s="160" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J88" s="162" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K88" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" s="125" customFormat="1">
+      <c r="A89" s="122" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B89" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="C89" s="118" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D89" s="116"/>
+      <c r="E89" s="116">
+        <v>44063</v>
+      </c>
+      <c r="F89" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="118" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H89" s="118" t="s">
+        <v>1652</v>
+      </c>
+      <c r="I89" s="160" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J89" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L6" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="114" customFormat="1">
-      <c r="A7" s="91" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D7" s="115">
-        <v>44148</v>
-      </c>
-      <c r="E7" s="115">
-        <v>44151</v>
-      </c>
-      <c r="F7" s="89" t="s">
+      <c r="K89" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L89" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" s="125" customFormat="1">
+      <c r="A90" s="122" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B90" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="C90" s="118" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D90" s="116"/>
+      <c r="E90" s="116">
+        <v>44089</v>
+      </c>
+      <c r="F90" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="118" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H90" s="118" t="s">
+        <v>1655</v>
+      </c>
+      <c r="I90" s="160" t="s">
+        <v>1651</v>
+      </c>
+      <c r="J90" s="164" t="s">
+        <v>25</v>
+      </c>
+      <c r="K90" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L90" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="125" customFormat="1">
+      <c r="A91" s="122" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B91" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="C91" s="118" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D91" s="116"/>
+      <c r="E91" s="116">
+        <v>44161</v>
+      </c>
+      <c r="F91" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="106" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H7" s="92" t="s">
-        <v>1555</v>
-      </c>
-      <c r="I7" s="106" t="s">
-        <v>1553</v>
-      </c>
-      <c r="J7" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L7" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="114" customFormat="1">
-      <c r="A8" s="91" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C8" s="106" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D8" s="87">
-        <v>44148</v>
-      </c>
-      <c r="E8" s="87">
-        <v>44151</v>
-      </c>
-      <c r="F8" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="92" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H8" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>1531</v>
-      </c>
-      <c r="J8" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L8" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="114" customFormat="1">
-      <c r="A9" s="91" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D9" s="115">
-        <v>44148</v>
-      </c>
-      <c r="E9" s="115">
-        <v>44151</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="106" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H9" s="116" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I9" s="106" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J9" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L9" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="91" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="87">
-        <v>44158</v>
-      </c>
-      <c r="F10" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="106" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H10" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="92" t="s">
-        <v>1551</v>
-      </c>
-      <c r="J10" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L10" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="114" customFormat="1">
-      <c r="A11" s="91" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D11" s="115">
-        <v>44148</v>
-      </c>
-      <c r="E11" s="115">
-        <v>44151</v>
-      </c>
-      <c r="F11" s="89" t="s">
-        <v>1550</v>
-      </c>
-      <c r="G11" s="106" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H11" s="90" t="s">
-        <v>1550</v>
-      </c>
-      <c r="I11" s="106" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J11" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L11" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="91" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D12" s="87">
-        <v>44148</v>
-      </c>
-      <c r="E12" s="87">
-        <v>44151</v>
-      </c>
-      <c r="F12" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="106" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H12" s="116" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I12" s="106" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J12" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L12" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="91" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D13" s="87">
-        <v>44054</v>
-      </c>
-      <c r="E13" s="87">
-        <v>44055</v>
-      </c>
-      <c r="F13" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="92" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H13" s="116" t="s">
-        <v>1556</v>
-      </c>
-      <c r="I13" s="92" t="s">
-        <v>1519</v>
-      </c>
-      <c r="J13" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L13" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="114" customFormat="1">
-      <c r="A14" s="91" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C14" s="106" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D14" s="115">
-        <v>44148</v>
-      </c>
-      <c r="E14" s="115">
-        <v>44151</v>
-      </c>
-      <c r="F14" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="106" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H14" s="116" t="s">
-        <v>1554</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J14" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L14" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="114" customFormat="1" ht="30">
-      <c r="A15" s="91" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B15" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C15" s="106" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D15" s="115">
-        <v>44162</v>
-      </c>
-      <c r="E15" s="115">
-        <v>44165</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H15" s="90" t="s">
-        <v>1570</v>
-      </c>
-      <c r="I15" s="106" t="s">
-        <v>1517</v>
-      </c>
-      <c r="J15" s="106" t="s">
-        <v>1549</v>
-      </c>
-      <c r="K15" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L15" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="114" customFormat="1">
-      <c r="A16" s="91" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B16" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D16" s="115">
-        <v>44148</v>
-      </c>
-      <c r="E16" s="115">
-        <v>44151</v>
-      </c>
-      <c r="F16" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="106" t="s">
-        <v>1522</v>
-      </c>
-      <c r="H16" s="92" t="s">
-        <v>1555</v>
-      </c>
-      <c r="I16" s="106" t="s">
-        <v>1552</v>
-      </c>
-      <c r="J16" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="111" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L16" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="92" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87">
-        <v>44159</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H17" s="92" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I17" s="92" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J17" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" s="92" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L17" s="92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="92" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D18" s="92"/>
-      <c r="E18" s="87">
-        <v>44165</v>
-      </c>
-      <c r="F18" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="92" t="s">
-        <v>1563</v>
-      </c>
-      <c r="H18" s="92" t="s">
-        <v>1566</v>
-      </c>
-      <c r="I18" s="92" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J18" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="92" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L18" s="92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="92" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="87">
-        <v>44162</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="92" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H19" s="92" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I19" s="92" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J19" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="92" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L19" s="92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="92" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B20" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87">
-        <v>44159</v>
-      </c>
-      <c r="F20" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="51" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H20" s="92" t="s">
-        <v>1562</v>
-      </c>
-      <c r="I20" s="92" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J20" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K20" s="92" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L20" s="92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="92" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="87">
-        <v>44165</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="92" t="s">
-        <v>1563</v>
-      </c>
-      <c r="H21" s="92" t="s">
-        <v>1566</v>
-      </c>
-      <c r="I21" s="92" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J21" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K21" s="92" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L21" s="92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="92" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="87">
-        <v>44162</v>
-      </c>
-      <c r="F22" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="92" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H22" s="92" t="s">
-        <v>1565</v>
-      </c>
-      <c r="I22" s="92" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J22" s="106" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" s="92" t="s">
-        <v>1567</v>
-      </c>
-      <c r="L22" s="92" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30">
-      <c r="A23" s="61" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D23" s="62">
-        <v>44033</v>
-      </c>
-      <c r="E23" s="62">
-        <v>44033</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="65" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I23" s="117" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J23" s="117" t="s">
-        <v>1291</v>
-      </c>
-      <c r="K23" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30">
-      <c r="A24" s="61" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D24" s="62">
-        <v>44047</v>
-      </c>
-      <c r="E24" s="62">
-        <v>44047</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="65" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I24" s="117" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J24" s="117" t="s">
-        <v>1295</v>
-      </c>
-      <c r="K24" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L24" s="65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30">
-      <c r="A25" s="61" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D25" s="62">
-        <v>44050</v>
-      </c>
-      <c r="E25" s="62">
-        <v>44050</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="65" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I25" s="117" t="s">
-        <v>1298</v>
-      </c>
-      <c r="J25" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="43" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="61" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D26" s="71">
-        <v>44025</v>
-      </c>
-      <c r="E26" s="71">
-        <v>44039</v>
-      </c>
-      <c r="F26" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H26" s="65" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I26" s="117" t="s">
-        <v>1411</v>
-      </c>
-      <c r="J26" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="K26" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30">
-      <c r="A27" s="61" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D27" s="71">
-        <v>44032</v>
-      </c>
-      <c r="E27" s="71">
-        <v>44036</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I27" s="117" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J27" s="117" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K27" s="76" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L27" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30">
-      <c r="A28" s="61" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D28" s="71">
-        <v>44032</v>
-      </c>
-      <c r="E28" s="71">
-        <v>44036</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" s="65" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I28" s="117" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J28" s="117" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K28" s="76" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L28" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30">
-      <c r="A29" s="61" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D29" s="71">
-        <v>44032</v>
-      </c>
-      <c r="E29" s="71">
-        <v>44036</v>
-      </c>
-      <c r="F29" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I29" s="117" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J29" s="117" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K29" s="76" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L29" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="30">
-      <c r="A30" s="61" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D30" s="71">
-        <v>44032</v>
-      </c>
-      <c r="E30" s="71">
-        <v>44036</v>
-      </c>
-      <c r="F30" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="65" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I30" s="117" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J30" s="117" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K30" s="76" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L30" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="30">
-      <c r="A31" s="61" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D31" s="71">
-        <v>44041</v>
-      </c>
-      <c r="E31" s="71">
-        <v>44043</v>
-      </c>
-      <c r="F31" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="65" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I31" s="117" t="s">
-        <v>1420</v>
-      </c>
-      <c r="J31" s="117" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K31" s="76" t="s">
-        <v>1528</v>
-      </c>
-      <c r="L31" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="30">
-      <c r="A32" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D32" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E32" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I32" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J32" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="30">
-      <c r="A33" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D33" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E33" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I33" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J33" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K33" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L33" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="30">
-      <c r="A34" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D34" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E34" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H34" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I34" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J34" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="30">
-      <c r="A35" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D35" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E35" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G35" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H35" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I35" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J35" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K35" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="30">
-      <c r="A36" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D36" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E36" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I36" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J36" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30">
-      <c r="A37" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D37" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E37" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I37" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J37" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L37" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="30">
-      <c r="A38" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D38" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E38" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I38" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J38" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K38" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30">
-      <c r="A39" s="61" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D39" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E39" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H39" s="65" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I39" s="117" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J39" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K39" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D40" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E40" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H40" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I40" s="117" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J40" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K40" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C41" s="43" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D41" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E41" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H41" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I41" s="117" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J41" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K41" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D42" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E42" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H42" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I42" s="117" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J42" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L42" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C43" s="43" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D43" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E43" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H43" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I43" s="117" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J43" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K43" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L43" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D44" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E44" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F44" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H44" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I44" s="117" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J44" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K44" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D45" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E45" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H45" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I45" s="117" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J45" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K45" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D46" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E46" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I46" s="117" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J46" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K46" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="61" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B47" s="43" t="s">
-        <v>712</v>
-      </c>
-      <c r="C47" s="43" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D47" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E47" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="65" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I47" s="117" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J47" s="118" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="76" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="91" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B48" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C48" s="43" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D48" s="87">
-        <v>44099</v>
-      </c>
-      <c r="E48" s="87">
-        <v>44100</v>
-      </c>
-      <c r="F48" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H48" s="92" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I48" s="92" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J48" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K48" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L48" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="91" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B49" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C49" s="43" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D49" s="87">
-        <v>44099</v>
-      </c>
-      <c r="E49" s="87">
-        <v>44100</v>
-      </c>
-      <c r="F49" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H49" s="92" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I49" s="92" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J49" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L49" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="91" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B50" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C50" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D50" s="87">
-        <v>44099</v>
-      </c>
-      <c r="E50" s="87">
-        <v>44100</v>
-      </c>
-      <c r="F50" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H50" s="92" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I50" s="92" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J50" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K50" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L50" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="91" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B51" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D51" s="87">
-        <v>44099</v>
-      </c>
-      <c r="E51" s="87">
-        <v>44100</v>
-      </c>
-      <c r="F51" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H51" s="92" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I51" s="92" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J51" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="91" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B52" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D52" s="87">
-        <v>44099</v>
-      </c>
-      <c r="E52" s="87">
-        <v>44100</v>
-      </c>
-      <c r="F52" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H52" s="92" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I52" s="92" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J52" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K52" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="91" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B53" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D53" s="87">
-        <v>44099</v>
-      </c>
-      <c r="E53" s="87">
-        <v>44100</v>
-      </c>
-      <c r="F53" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H53" s="92" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I53" s="92" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J53" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K53" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="91" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B54" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D54" s="87">
-        <v>44099</v>
-      </c>
-      <c r="E54" s="87">
-        <v>44100</v>
-      </c>
-      <c r="F54" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H54" s="92" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I54" s="92" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J54" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K54" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="91" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B55" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D55" s="87">
-        <v>44099</v>
-      </c>
-      <c r="E55" s="87">
-        <v>44100</v>
-      </c>
-      <c r="F55" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H55" s="92" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I55" s="92" t="s">
-        <v>1503</v>
-      </c>
-      <c r="J55" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K55" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L55" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="91" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B56" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D56" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E56" s="87">
-        <v>44117</v>
-      </c>
-      <c r="F56" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H56" s="107" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I56" s="92" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J56" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K56" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L56" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="91" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B57" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D57" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E57" s="87">
-        <v>44117</v>
-      </c>
-      <c r="F57" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H57" s="107" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I57" s="92" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J57" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K57" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="91" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B58" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D58" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E58" s="87">
-        <v>44117</v>
-      </c>
-      <c r="F58" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H58" s="107" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I58" s="92" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J58" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K58" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="91" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B59" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D59" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E59" s="87">
-        <v>44117</v>
-      </c>
-      <c r="F59" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H59" s="107" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I59" s="92" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J59" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K59" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="91" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B60" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D60" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E60" s="87">
-        <v>44117</v>
-      </c>
-      <c r="F60" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H60" s="107" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I60" s="92" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J60" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K60" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="A61" s="91" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B61" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D61" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E61" s="87">
-        <v>44117</v>
-      </c>
-      <c r="F61" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H61" s="107" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I61" s="92" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J61" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K61" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L61" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="91" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B62" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D62" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E62" s="87">
-        <v>44117</v>
-      </c>
-      <c r="F62" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H62" s="107" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I62" s="92" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J62" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K62" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L62" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
-      <c r="A63" s="91" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B63" s="86" t="s">
-        <v>712</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D63" s="87">
-        <v>44113</v>
-      </c>
-      <c r="E63" s="87">
-        <v>44117</v>
-      </c>
-      <c r="F63" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H63" s="107" t="s">
-        <v>1579</v>
-      </c>
-      <c r="I63" s="92" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J63" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K63" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="91" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B64" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="92" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D64" s="87">
-        <v>44142</v>
-      </c>
-      <c r="E64" s="87">
-        <v>44142</v>
-      </c>
-      <c r="F64" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="90" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H64" s="107" t="s">
-        <v>1583</v>
-      </c>
-      <c r="I64" s="92" t="s">
-        <v>1576</v>
-      </c>
-      <c r="J64" s="92" t="s">
-        <v>1577</v>
-      </c>
-      <c r="K64" s="111" t="s">
-        <v>1584</v>
-      </c>
-      <c r="L64" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="30">
-      <c r="A65" s="91" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B65" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="111" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D65" s="92"/>
-      <c r="E65" s="119">
-        <v>44154</v>
-      </c>
-      <c r="F65" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="120" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H65" s="86" t="s">
-        <v>1581</v>
-      </c>
-      <c r="I65" s="92" t="s">
-        <v>1573</v>
-      </c>
-      <c r="J65" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K65" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="91" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B66" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="111" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D66" s="92"/>
-      <c r="E66" s="119">
-        <v>44154</v>
-      </c>
-      <c r="F66" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="120" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H66" s="86" t="s">
-        <v>1581</v>
-      </c>
-      <c r="I66" s="92" t="s">
-        <v>1573</v>
-      </c>
-      <c r="J66" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K66" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="91" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B67" s="111" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="111" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D67" s="92"/>
-      <c r="E67" s="119">
-        <v>44154</v>
-      </c>
-      <c r="F67" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="120" t="s">
-        <v>1560</v>
-      </c>
-      <c r="H67" s="86" t="s">
-        <v>1581</v>
-      </c>
-      <c r="I67" s="92" t="s">
-        <v>1573</v>
-      </c>
-      <c r="J67" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K67" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="30">
-      <c r="A68" s="61" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="111" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D68" s="62">
-        <v>44034</v>
-      </c>
-      <c r="E68" s="62">
-        <v>44034</v>
-      </c>
-      <c r="F68" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G68" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H68" s="121" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I68" s="122" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J68" s="123" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K68" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L68" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="30">
-      <c r="A69" s="61" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="111" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D69" s="62">
-        <v>44034</v>
-      </c>
-      <c r="E69" s="62">
-        <v>44034</v>
-      </c>
-      <c r="F69" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G69" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H69" s="121" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I69" s="122" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J69" s="123" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K69" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L69" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="30">
-      <c r="A70" s="61" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B70" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="111" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D70" s="62">
-        <v>44034</v>
-      </c>
-      <c r="E70" s="62">
-        <v>44034</v>
-      </c>
-      <c r="F70" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H70" s="121" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I70" s="122" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J70" s="123" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K70" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L70" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="30">
-      <c r="A71" s="61" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" s="111" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D71" s="62">
-        <v>44041</v>
-      </c>
-      <c r="E71" s="62">
-        <v>44041</v>
-      </c>
-      <c r="F71" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G71" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H71" s="121" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I71" s="122" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J71" s="123" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K71" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="30">
-      <c r="A72" s="61" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C72" s="111" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D72" s="62">
-        <v>44041</v>
-      </c>
-      <c r="E72" s="62">
-        <v>44041</v>
-      </c>
-      <c r="F72" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G72" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H72" s="121" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I72" s="122" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J72" s="123" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K72" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="30">
-      <c r="A73" s="61" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="C73" s="111" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D73" s="62">
-        <v>44041</v>
-      </c>
-      <c r="E73" s="62">
-        <v>44041</v>
-      </c>
-      <c r="F73" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G73" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="H73" s="121" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I73" s="122" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J73" s="123" t="s">
-        <v>1307</v>
-      </c>
-      <c r="K73" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" s="43" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="61"/>
-      <c r="B74" s="43" t="s">
-        <v>950</v>
-      </c>
-      <c r="C74" s="111" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D74" s="62">
-        <v>44104</v>
-      </c>
-      <c r="E74" s="62">
-        <v>44105</v>
-      </c>
-      <c r="F74" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="120" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H74" s="121" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I74" s="122" t="s">
-        <v>1610</v>
-      </c>
-      <c r="J74" s="123" t="s">
-        <v>1612</v>
-      </c>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-    </row>
-    <row r="75" spans="1:12" ht="30">
-      <c r="A75" s="91" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B75" s="111" t="s">
-        <v>950</v>
-      </c>
-      <c r="C75" s="92" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D75" s="87">
-        <v>44154</v>
-      </c>
-      <c r="E75" s="87">
-        <v>44154</v>
-      </c>
-      <c r="F75" s="120" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G75" s="120" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H75" s="127" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I75" s="127" t="s">
-        <v>1589</v>
-      </c>
-      <c r="J75" s="127" t="s">
-        <v>1593</v>
-      </c>
-      <c r="K75" s="111" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L75" s="111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="30" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B76" s="111" t="s">
-        <v>950</v>
-      </c>
-      <c r="C76" s="92" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D76" s="87">
-        <v>44123</v>
-      </c>
-      <c r="E76" s="87">
-        <v>44126</v>
-      </c>
-      <c r="F76" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="120" t="s">
-        <v>1587</v>
-      </c>
-      <c r="H76" s="127" t="s">
-        <v>1597</v>
-      </c>
-      <c r="I76" s="127" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J76" s="127" t="s">
-        <v>1614</v>
-      </c>
-      <c r="K76" s="111" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L76" s="111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="30">
-      <c r="A77" s="30" t="s">
-        <v>1591</v>
-      </c>
-      <c r="B77" s="111" t="s">
-        <v>950</v>
-      </c>
-      <c r="C77" s="92" t="s">
-        <v>1594</v>
-      </c>
-      <c r="D77" s="87">
-        <v>44102</v>
-      </c>
-      <c r="E77" s="87">
-        <v>44132</v>
-      </c>
-      <c r="F77" s="120" t="s">
-        <v>1611</v>
-      </c>
-      <c r="G77" s="120" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H77" s="127" t="s">
-        <v>1590</v>
-      </c>
-      <c r="I77" s="92" t="s">
-        <v>1598</v>
-      </c>
-      <c r="J77" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K77" s="111" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L77" s="111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="91" t="s">
-        <v>1603</v>
-      </c>
-      <c r="B78" s="111" t="s">
-        <v>260</v>
-      </c>
-      <c r="C78" s="92" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D78" s="87">
-        <v>44137</v>
-      </c>
-      <c r="E78" s="87">
-        <v>44147</v>
-      </c>
-      <c r="F78" s="120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="120" t="s">
-        <v>1602</v>
-      </c>
-      <c r="H78" s="127" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I78" s="92" t="s">
-        <v>1604</v>
-      </c>
-      <c r="J78" s="92" t="s">
-        <v>1605</v>
-      </c>
-      <c r="K78" s="111" t="s">
-        <v>1592</v>
-      </c>
-      <c r="L78" s="111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="124" customFormat="1">
-      <c r="A79" s="125" t="s">
-        <v>1615</v>
-      </c>
-      <c r="B79" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="65" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D79" s="71">
-        <v>44035</v>
-      </c>
-      <c r="E79" s="71">
-        <v>44037</v>
-      </c>
-      <c r="F79" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="G79" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="H79" s="121" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I79" s="117" t="s">
-        <v>1320</v>
-      </c>
-      <c r="J79" s="117" t="s">
-        <v>1321</v>
-      </c>
-      <c r="K79" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79" s="65" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="124" customFormat="1">
-      <c r="A80" s="125" t="s">
-        <v>1616</v>
-      </c>
-      <c r="B80" s="65" t="s">
-        <v>260</v>
-      </c>
-      <c r="C80" s="65" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D80" s="71">
-        <v>44042</v>
-      </c>
-      <c r="E80" s="71">
-        <v>44042</v>
-      </c>
-      <c r="F80" s="126" t="s">
-        <v>59</v>
-      </c>
-      <c r="G80" s="126" t="s">
-        <v>102</v>
-      </c>
-      <c r="H80" s="121" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I80" s="117" t="s">
-        <v>1330</v>
-      </c>
-      <c r="J80" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="K80" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" s="65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="124" customFormat="1">
-      <c r="A81" s="125" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B81" s="65" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C81" s="65" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D81" s="71">
-        <v>44033</v>
-      </c>
-      <c r="E81" s="71">
-        <v>44033</v>
-      </c>
-      <c r="F81" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H81" s="125" t="s">
-        <v>1486</v>
-      </c>
-      <c r="I81" s="128" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J81" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K81" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" s="75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="124" customFormat="1">
-      <c r="A82" s="125" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B82" s="65" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C82" s="65" t="s">
-        <v>1609</v>
-      </c>
-      <c r="D82" s="71">
-        <v>44033</v>
-      </c>
-      <c r="E82" s="71">
-        <v>44033</v>
-      </c>
-      <c r="F82" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="H82" s="125" t="s">
-        <v>1486</v>
-      </c>
-      <c r="I82" s="128" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J82" s="129" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="L82" s="75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="130" t="s">
-        <v>1608</v>
-      </c>
-      <c r="B83" s="86" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="92"/>
-      <c r="I83" s="92" t="s">
-        <v>1134</v>
-      </c>
-      <c r="J83" s="92"/>
-      <c r="K83" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="L83" s="111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="130"/>
-      <c r="B84" s="86"/>
-      <c r="C84" s="92"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
-      <c r="F84" s="92"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="92"/>
-      <c r="I84" s="92"/>
-      <c r="J84" s="92"/>
-      <c r="K84" s="92"/>
-      <c r="L84" s="92"/>
+      <c r="G91" s="118" t="s">
+        <v>1649</v>
+      </c>
+      <c r="H91" s="122" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I91" s="160" t="s">
+        <v>1648</v>
+      </c>
+      <c r="J91" s="164" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K91" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L91" s="118" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L83" xr:uid="{D3EA9D70-1DD0-F64C-9D19-65089DF69632}"/>
+  <autoFilter ref="A1:L91" xr:uid="{D3EA9D70-1DD0-F64C-9D19-65089DF69632}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L85">
+      <sortCondition descending="1" ref="C2:C85"/>
+      <sortCondition ref="E2:E85"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J23" r:id="rId1" xr:uid="{9A133E8B-BA27-014E-B4CB-FE7BF71C5FB5}"/>
-    <hyperlink ref="I23" r:id="rId2" xr:uid="{92AA0DDA-2F50-C744-9BC7-D3A9423B7801}"/>
-    <hyperlink ref="I24" r:id="rId3" xr:uid="{9907A42E-94DE-7D44-9392-55EE1D7C5271}"/>
-    <hyperlink ref="J24" r:id="rId4" xr:uid="{0EC3DAE3-DBE7-AA4C-841E-0E8E86D4E0F4}"/>
-    <hyperlink ref="I25" r:id="rId5" xr:uid="{047D3120-2FC0-4E42-97EE-82A1BCBEAED0}"/>
-    <hyperlink ref="I26" r:id="rId6" xr:uid="{3056E803-7C85-C641-B8A5-DE4555EE2EFD}"/>
-    <hyperlink ref="I30" r:id="rId7" xr:uid="{4C3AFFDB-38F7-5A46-A93F-41ADE0DF18A8}"/>
-    <hyperlink ref="J30" r:id="rId8" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{55B74428-7CED-C345-BDE2-3BBFABD3E2AF}"/>
-    <hyperlink ref="I31" r:id="rId9" xr:uid="{D0191A21-C7D5-CE49-BF58-709CFB923710}"/>
-    <hyperlink ref="J31" r:id="rId10" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{E7992805-268F-1F44-AAE7-939CAAC78367}"/>
-    <hyperlink ref="I39" r:id="rId11" xr:uid="{1B05F4A5-B5EA-A949-81DE-7A609B1A9FC5}"/>
-    <hyperlink ref="I47" r:id="rId12" xr:uid="{6800A844-FEE3-C04A-929B-9D03C1C439DC}"/>
-    <hyperlink ref="I29" r:id="rId13" xr:uid="{69047728-9543-1247-A5BE-8D4614CFE41C}"/>
-    <hyperlink ref="J29" r:id="rId14" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{691B7EB4-599F-EC4E-867C-7F8CA77FBD52}"/>
-    <hyperlink ref="I28" r:id="rId15" xr:uid="{4204DAAC-5378-3F4E-B5A9-6DD417A3FC1A}"/>
-    <hyperlink ref="J28" r:id="rId16" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{1041D2EB-9DAC-1F42-B966-EA4CA05645E1}"/>
-    <hyperlink ref="I27" r:id="rId17" xr:uid="{14FAFFEF-C651-D24E-AA20-5D264F466D85}"/>
-    <hyperlink ref="J27" r:id="rId18" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{5CFA2580-E058-2D44-A55E-E408DDD9860A}"/>
-    <hyperlink ref="I70" r:id="rId19" xr:uid="{E4E94D16-1FD2-2942-B1AD-B93DE21D810D}"/>
-    <hyperlink ref="J70" r:id="rId20" xr:uid="{085DB823-D1F3-4A43-8045-BD84A25FEA77}"/>
-    <hyperlink ref="I73" r:id="rId21" xr:uid="{DE7C7BD7-CB19-6C41-814C-341FEEF56719}"/>
-    <hyperlink ref="J73" r:id="rId22" xr:uid="{39C34B9C-6B4D-9D40-882D-38865B40CEE1}"/>
-    <hyperlink ref="I38" r:id="rId23" xr:uid="{796066CA-8DDA-1648-B49D-B8064222CD77}"/>
-    <hyperlink ref="I37" r:id="rId24" xr:uid="{62121106-BCE2-8345-B976-E2BF110C79B6}"/>
-    <hyperlink ref="I36" r:id="rId25" xr:uid="{244C74A6-93E5-C846-9E75-4BE6D393A6A8}"/>
-    <hyperlink ref="I35" r:id="rId26" xr:uid="{0776C766-3BA3-B743-A4B7-1BFE6BD18D74}"/>
-    <hyperlink ref="I34" r:id="rId27" xr:uid="{DD08BFE5-AD36-C840-88E2-F74D62D22690}"/>
+    <hyperlink ref="J83" r:id="rId1" xr:uid="{9A133E8B-BA27-014E-B4CB-FE7BF71C5FB5}"/>
+    <hyperlink ref="I83" r:id="rId2" xr:uid="{92AA0DDA-2F50-C744-9BC7-D3A9423B7801}"/>
+    <hyperlink ref="I84" r:id="rId3" xr:uid="{9907A42E-94DE-7D44-9392-55EE1D7C5271}"/>
+    <hyperlink ref="J84" r:id="rId4" xr:uid="{0EC3DAE3-DBE7-AA4C-841E-0E8E86D4E0F4}"/>
+    <hyperlink ref="I85" r:id="rId5" xr:uid="{047D3120-2FC0-4E42-97EE-82A1BCBEAED0}"/>
+    <hyperlink ref="I39" r:id="rId6" xr:uid="{3056E803-7C85-C641-B8A5-DE4555EE2EFD}"/>
+    <hyperlink ref="I72" r:id="rId7" xr:uid="{4C3AFFDB-38F7-5A46-A93F-41ADE0DF18A8}"/>
+    <hyperlink ref="J72" r:id="rId8" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{55B74428-7CED-C345-BDE2-3BBFABD3E2AF}"/>
+    <hyperlink ref="I24" r:id="rId9" xr:uid="{D0191A21-C7D5-CE49-BF58-709CFB923710}"/>
+    <hyperlink ref="J24" r:id="rId10" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{E7992805-268F-1F44-AAE7-939CAAC78367}"/>
+    <hyperlink ref="I41" r:id="rId11" xr:uid="{1B05F4A5-B5EA-A949-81DE-7A609B1A9FC5}"/>
+    <hyperlink ref="I42" r:id="rId12" xr:uid="{6800A844-FEE3-C04A-929B-9D03C1C439DC}"/>
+    <hyperlink ref="I62" r:id="rId13" xr:uid="{69047728-9543-1247-A5BE-8D4614CFE41C}"/>
+    <hyperlink ref="J62" r:id="rId14" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{691B7EB4-599F-EC4E-867C-7F8CA77FBD52}"/>
+    <hyperlink ref="I40" r:id="rId15" xr:uid="{4204DAAC-5378-3F4E-B5A9-6DD417A3FC1A}"/>
+    <hyperlink ref="J40" r:id="rId16" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{1041D2EB-9DAC-1F42-B966-EA4CA05645E1}"/>
+    <hyperlink ref="I2" r:id="rId17" xr:uid="{14FAFFEF-C651-D24E-AA20-5D264F466D85}"/>
+    <hyperlink ref="J2" r:id="rId18" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{5CFA2580-E058-2D44-A55E-E408DDD9860A}"/>
+    <hyperlink ref="I58" r:id="rId19" xr:uid="{E4E94D16-1FD2-2942-B1AD-B93DE21D810D}"/>
+    <hyperlink ref="J58" r:id="rId20" xr:uid="{085DB823-D1F3-4A43-8045-BD84A25FEA77}"/>
+    <hyperlink ref="I59" r:id="rId21" xr:uid="{DE7C7BD7-CB19-6C41-814C-341FEEF56719}"/>
+    <hyperlink ref="J59" r:id="rId22" xr:uid="{39C34B9C-6B4D-9D40-882D-38865B40CEE1}"/>
+    <hyperlink ref="I7" r:id="rId23" xr:uid="{796066CA-8DDA-1648-B49D-B8064222CD77}"/>
+    <hyperlink ref="I73" r:id="rId24" xr:uid="{62121106-BCE2-8345-B976-E2BF110C79B6}"/>
+    <hyperlink ref="I51" r:id="rId25" xr:uid="{244C74A6-93E5-C846-9E75-4BE6D393A6A8}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{0776C766-3BA3-B743-A4B7-1BFE6BD18D74}"/>
+    <hyperlink ref="I63" r:id="rId27" xr:uid="{DD08BFE5-AD36-C840-88E2-F74D62D22690}"/>
     <hyperlink ref="I33" r:id="rId28" xr:uid="{5015A4E2-8ED6-9C4F-8497-251E6E6A8893}"/>
-    <hyperlink ref="I32" r:id="rId29" xr:uid="{14422CEC-56FE-BB45-AF1F-32D2887C653D}"/>
-    <hyperlink ref="I46" r:id="rId30" xr:uid="{4BB86159-8F82-BA43-A49D-FEFF44A67E48}"/>
-    <hyperlink ref="I45" r:id="rId31" xr:uid="{5DA16691-B1DC-F941-84CB-4B095125CAEF}"/>
-    <hyperlink ref="I44" r:id="rId32" xr:uid="{FEB3986C-8839-C548-BCD0-E51A4A341597}"/>
-    <hyperlink ref="I43" r:id="rId33" xr:uid="{7595DDCB-236E-D646-A864-9BA77DCE7665}"/>
-    <hyperlink ref="I42" r:id="rId34" xr:uid="{4EAC5CE9-0494-C145-B552-383716D77C7A}"/>
-    <hyperlink ref="I41" r:id="rId35" xr:uid="{8A6ED564-D3DB-5A4D-AB87-33FFE8EE78F1}"/>
-    <hyperlink ref="I40" r:id="rId36" xr:uid="{B13B0A15-6A08-DE49-93FA-39A781D1E949}"/>
-    <hyperlink ref="I69" r:id="rId37" xr:uid="{5752B2AF-5B4B-0243-BE03-1AF937F50FA1}"/>
-    <hyperlink ref="J69" r:id="rId38" xr:uid="{C0271BDC-702D-5B4A-BF08-483C9C5F2530}"/>
-    <hyperlink ref="I68" r:id="rId39" xr:uid="{D323E607-B373-5F4F-803C-A6446635F075}"/>
-    <hyperlink ref="J68" r:id="rId40" xr:uid="{B3E02584-7A10-C042-8FB0-085271F69160}"/>
-    <hyperlink ref="I72" r:id="rId41" xr:uid="{2E0FCB06-9E21-784B-A34F-7F01A9E85AB4}"/>
-    <hyperlink ref="J72" r:id="rId42" xr:uid="{D493AD81-399C-1042-816B-D93B366AA787}"/>
-    <hyperlink ref="I71" r:id="rId43" xr:uid="{EEF0EBF7-80C8-7045-9267-011F8CDBB121}"/>
-    <hyperlink ref="J71" r:id="rId44" xr:uid="{AD1D3E84-4D7D-7140-AAD0-99D5D76D8E47}"/>
-    <hyperlink ref="I79" r:id="rId45" xr:uid="{8D2A64DF-13E2-4445-BC9E-7241C4199AE4}"/>
-    <hyperlink ref="J79" r:id="rId46" xr:uid="{D9D5CA4B-2147-9A49-AE8B-BC90E428825C}"/>
-    <hyperlink ref="I80" r:id="rId47" xr:uid="{96DEAEAF-A5B2-D64B-9CEF-B36481C01987}"/>
-    <hyperlink ref="I82" r:id="rId48" xr:uid="{280C37A6-688D-804F-889D-7DDF89E83653}"/>
-    <hyperlink ref="I81" r:id="rId49" xr:uid="{43B254D1-91EA-0A4A-ACE2-54B8D1470CCB}"/>
+    <hyperlink ref="I23" r:id="rId29" xr:uid="{14422CEC-56FE-BB45-AF1F-32D2887C653D}"/>
+    <hyperlink ref="I8" r:id="rId30" xr:uid="{4BB86159-8F82-BA43-A49D-FEFF44A67E48}"/>
+    <hyperlink ref="I74" r:id="rId31" xr:uid="{5DA16691-B1DC-F941-84CB-4B095125CAEF}"/>
+    <hyperlink ref="I52" r:id="rId32" xr:uid="{FEB3986C-8839-C548-BCD0-E51A4A341597}"/>
+    <hyperlink ref="I15" r:id="rId33" xr:uid="{7595DDCB-236E-D646-A864-9BA77DCE7665}"/>
+    <hyperlink ref="I64" r:id="rId34" xr:uid="{4EAC5CE9-0494-C145-B552-383716D77C7A}"/>
+    <hyperlink ref="I34" r:id="rId35" xr:uid="{8A6ED564-D3DB-5A4D-AB87-33FFE8EE78F1}"/>
+    <hyperlink ref="J23" r:id="rId36" xr:uid="{B13B0A15-6A08-DE49-93FA-39A781D1E949}"/>
+    <hyperlink ref="I55" r:id="rId37" xr:uid="{5752B2AF-5B4B-0243-BE03-1AF937F50FA1}"/>
+    <hyperlink ref="J55" r:id="rId38" xr:uid="{C0271BDC-702D-5B4A-BF08-483C9C5F2530}"/>
+    <hyperlink ref="I19" r:id="rId39" xr:uid="{D323E607-B373-5F4F-803C-A6446635F075}"/>
+    <hyperlink ref="J19" r:id="rId40" xr:uid="{B3E02584-7A10-C042-8FB0-085271F69160}"/>
+    <hyperlink ref="I56" r:id="rId41" xr:uid="{2E0FCB06-9E21-784B-A34F-7F01A9E85AB4}"/>
+    <hyperlink ref="J56" r:id="rId42" xr:uid="{D493AD81-399C-1042-816B-D93B366AA787}"/>
+    <hyperlink ref="I20" r:id="rId43" xr:uid="{EEF0EBF7-80C8-7045-9267-011F8CDBB121}"/>
+    <hyperlink ref="J20" r:id="rId44" xr:uid="{AD1D3E84-4D7D-7140-AAD0-99D5D76D8E47}"/>
+    <hyperlink ref="I4" r:id="rId45" xr:uid="{8D2A64DF-13E2-4445-BC9E-7241C4199AE4}"/>
+    <hyperlink ref="J4" r:id="rId46" xr:uid="{D9D5CA4B-2147-9A49-AE8B-BC90E428825C}"/>
+    <hyperlink ref="I5" r:id="rId47" xr:uid="{96DEAEAF-A5B2-D64B-9CEF-B36481C01987}"/>
+    <hyperlink ref="I32" r:id="rId48" xr:uid="{280C37A6-688D-804F-889D-7DDF89E83653}"/>
+    <hyperlink ref="I31" r:id="rId49" xr:uid="{43B254D1-91EA-0A4A-ACE2-54B8D1470CCB}"/>
+    <hyperlink ref="J88" r:id="rId50" xr:uid="{9C496835-0A95-3740-8BB0-B56306876A36}"/>
+    <hyperlink ref="I88" r:id="rId51" xr:uid="{DA17DE05-0B19-6F46-83EA-FF80500EA6CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF410C7E-20A9-414B-90C7-927A04650CDE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="121" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="97" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/collection/data/policies/CIHI_closures_openings.xlsx
+++ b/collection/data/policies/CIHI_closures_openings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kt/Documents/work/STATCAN/Projects/nick/collection/data/policies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79442583-27A2-3447-BACC-096B3B52E1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2F669D-DBD5-9C4D-BEE6-1B17D940E546}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{B4121951-06CD-2247-ACCE-15AA6F239984}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orig!$A$1:$L$539</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top20'!$A$1:$L$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'top20'!$A$1:$L$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5739" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5709" uniqueCount="1655">
   <si>
     <t>Entry ID</t>
   </si>
@@ -30003,9 +30003,6 @@
   </si>
   <si>
     <t>AB169</t>
-  </si>
-  <si>
-    <t>Zone</t>
   </si>
   <si>
     <t>Calgary</t>
@@ -31221,9 +31218,6 @@
     <t>https://www.gov.mb.ca/covid19/restartmb/prs/winnipeg/index.html</t>
   </si>
   <si>
-    <t>Halifax</t>
-  </si>
-  <si>
     <t>https://www.saskatchewan.ca/government/news-and-media/2020/november/25/covid-19-update-new-measures-in-effect-november-27</t>
   </si>
   <si>
@@ -31329,6 +31323,9 @@
   </si>
   <si>
     <t>What: Day programs, supported employment and social enterprise service providers funded through the Department of Community Services’ Disability Support Program can open with an approved plan that meets public health guidelines.</t>
+  </si>
+  <si>
+    <t>Zone 4 - Central</t>
   </si>
 </sst>
 </file>
@@ -31693,7 +31690,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -32127,13 +32124,23 @@
     <xf numFmtId="166" fontId="3" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="18" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body_text" xfId="4" xr:uid="{6EABE1A5-4DA1-E64F-8051-01C7E4BEAEBC}"/>
@@ -52425,10 +52432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB1EB7-EFBB-BE4C-BF33-3C1CB63F305E}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -52478,21 +52485,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="121" customFormat="1" ht="30">
+    <row r="2" spans="1:12" s="121" customFormat="1">
       <c r="A2" s="114" t="s">
-        <v>1415</v>
+        <v>1288</v>
       </c>
       <c r="B2" s="115" t="s">
-        <v>712</v>
+        <v>12</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D2" s="116">
-        <v>44032</v>
-      </c>
-      <c r="E2" s="116">
-        <v>44036</v>
+        <v>1558</v>
+      </c>
+      <c r="D2" s="144">
+        <v>44033</v>
+      </c>
+      <c r="E2" s="144">
+        <v>44033</v>
       </c>
       <c r="F2" s="117" t="s">
         <v>59</v>
@@ -52501,1145 +52508,1129 @@
         <v>1599</v>
       </c>
       <c r="H2" s="118" t="s">
-        <v>1416</v>
+        <v>1289</v>
       </c>
       <c r="I2" s="119" t="s">
-        <v>1417</v>
+        <v>1290</v>
       </c>
       <c r="J2" s="119" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K2" s="120" t="s">
+        <v>1291</v>
+      </c>
+      <c r="K2" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="125" customFormat="1">
+      <c r="A3" s="114" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B3" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="115" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D3" s="144">
+        <v>44047</v>
+      </c>
+      <c r="E3" s="144">
+        <v>44047</v>
+      </c>
+      <c r="F3" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H3" s="118" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I3" s="119" t="s">
+        <v>1294</v>
+      </c>
+      <c r="J3" s="119" t="s">
+        <v>1295</v>
+      </c>
+      <c r="K3" s="124" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="121" customFormat="1">
+      <c r="A4" s="114" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B4" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D4" s="144">
+        <v>44050</v>
+      </c>
+      <c r="E4" s="144">
+        <v>44050</v>
+      </c>
+      <c r="F4" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H4" s="118" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I4" s="119" t="s">
+        <v>1298</v>
+      </c>
+      <c r="J4" s="151" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="115" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="121" customFormat="1">
+      <c r="A5" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133">
+        <v>44159</v>
+      </c>
+      <c r="F5" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="117" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H5" s="134" t="s">
+        <v>1632</v>
+      </c>
+      <c r="I5" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="125" customFormat="1">
-      <c r="A3" s="122"/>
-      <c r="B3" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D3" s="116">
-        <v>44120</v>
-      </c>
-      <c r="E3" s="116">
-        <v>44123</v>
-      </c>
-      <c r="F3" s="123" t="s">
+      <c r="L5" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="121" customFormat="1">
+      <c r="A6" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B6" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D6" s="134"/>
+      <c r="E6" s="133">
+        <v>44162</v>
+      </c>
+      <c r="F6" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="142" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H3" s="124" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I3" s="119" t="s">
-        <v>1605</v>
-      </c>
-      <c r="J3" s="165" t="s">
+      <c r="G6" s="134" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H6" s="134" t="s">
+        <v>1631</v>
+      </c>
+      <c r="I6" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J6" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K6" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="121" customFormat="1">
-      <c r="A4" s="122" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B4" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="C4" s="118" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D4" s="116">
-        <v>44035</v>
-      </c>
-      <c r="E4" s="116">
-        <v>44037</v>
-      </c>
-      <c r="F4" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="123" t="s">
-        <v>1599</v>
-      </c>
-      <c r="H4" s="152" t="s">
-        <v>1319</v>
-      </c>
-      <c r="I4" s="119" t="s">
-        <v>1320</v>
-      </c>
-      <c r="J4" s="119" t="s">
-        <v>1321</v>
-      </c>
-      <c r="K4" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="118" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="121" customFormat="1">
-      <c r="A5" s="122" t="s">
-        <v>1594</v>
-      </c>
-      <c r="B5" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="118" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D5" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E5" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F5" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="123" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H5" s="152" t="s">
-        <v>1329</v>
-      </c>
-      <c r="I5" s="119" t="s">
-        <v>1330</v>
-      </c>
-      <c r="J5" s="124" t="s">
+      <c r="L6" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="121" customFormat="1">
+      <c r="A7" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B7" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="134" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D7" s="134"/>
+      <c r="E7" s="133">
+        <v>44165</v>
+      </c>
+      <c r="F7" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="134" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I7" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J7" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="121" customFormat="1">
-      <c r="A6" s="114" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B6" s="115" t="s">
-        <v>260</v>
-      </c>
-      <c r="C6" s="134" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D6" s="133">
-        <v>44137</v>
-      </c>
-      <c r="E6" s="133">
-        <v>44147</v>
-      </c>
-      <c r="F6" s="117" t="s">
+      <c r="K7" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="131" customFormat="1">
+      <c r="A8" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B8" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="134" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133">
+        <v>44159</v>
+      </c>
+      <c r="F8" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="117" t="s">
-        <v>1583</v>
-      </c>
-      <c r="H6" s="142" t="s">
-        <v>1638</v>
-      </c>
-      <c r="I6" s="134" t="s">
-        <v>1643</v>
-      </c>
-      <c r="J6" s="134" t="s">
-        <v>1585</v>
-      </c>
-      <c r="K6" s="115" t="s">
-        <v>1573</v>
-      </c>
-      <c r="L6" s="115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="121" customFormat="1">
-      <c r="A7" s="114" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B7" s="115" t="s">
-        <v>712</v>
-      </c>
-      <c r="C7" s="115" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D7" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E7" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F7" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H7" s="118" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I7" s="119" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J7" s="137" t="s">
+      <c r="G8" s="117" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H8" s="134" t="s">
+        <v>1633</v>
+      </c>
+      <c r="I8" s="134" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J8" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="131" customFormat="1">
-      <c r="A8" s="126" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B8" s="127" t="s">
-        <v>712</v>
-      </c>
-      <c r="C8" s="127" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D8" s="145">
-        <v>44042</v>
-      </c>
-      <c r="E8" s="145">
-        <v>44042</v>
-      </c>
-      <c r="F8" s="146" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="146" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H8" s="127" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I8" s="147" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J8" s="148" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="129" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="129" t="s">
+      <c r="K8" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="134" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="121" customFormat="1">
-      <c r="A9" s="114" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B9" s="118" t="s">
-        <v>712</v>
+      <c r="A9" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B9" s="134" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="134" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D9" s="133">
-        <v>44054</v>
-      </c>
+        <v>1557</v>
+      </c>
+      <c r="D9" s="134"/>
       <c r="E9" s="133">
-        <v>44055</v>
-      </c>
-      <c r="F9" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="139" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H9" s="139" t="s">
-        <v>1626</v>
+        <v>44162</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="134" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H9" s="134" t="s">
+        <v>1631</v>
       </c>
       <c r="I9" s="134" t="s">
-        <v>1519</v>
+        <v>1554</v>
       </c>
       <c r="J9" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="115" t="s">
+      <c r="K9" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="132" t="s">
+      <c r="L9" s="134" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="121" customFormat="1">
-      <c r="A10" s="114" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B10" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C10" s="115" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D10" s="128">
-        <v>44099</v>
-      </c>
-      <c r="E10" s="128">
-        <v>44100</v>
-      </c>
-      <c r="F10" s="129" t="s">
+      <c r="A10" s="134" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B10" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="134" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D10" s="134"/>
+      <c r="E10" s="133">
+        <v>44165</v>
+      </c>
+      <c r="F10" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="134" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H10" s="134" t="s">
+        <v>1630</v>
+      </c>
+      <c r="I10" s="150" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J10" s="134" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="134" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A11" s="114" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B11" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D11" s="144">
+        <v>44034</v>
+      </c>
+      <c r="E11" s="144">
+        <v>44034</v>
+      </c>
+      <c r="F11" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="117" t="s">
         <v>1598</v>
       </c>
-      <c r="H10" s="130" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I10" s="131" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J10" s="130" t="s">
-        <v>1503</v>
-      </c>
-      <c r="K10" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="121" customFormat="1">
-      <c r="A11" s="114" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B11" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C11" s="115" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D11" s="133">
-        <v>44113</v>
-      </c>
-      <c r="E11" s="133">
-        <v>44117</v>
-      </c>
-      <c r="F11" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H11" s="135" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I11" s="134" t="s">
-        <v>1412</v>
-      </c>
-      <c r="J11" s="136" t="s">
-        <v>25</v>
+      <c r="H11" s="152" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I11" s="153" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J11" s="154" t="s">
+        <v>1303</v>
       </c>
       <c r="K11" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="132" t="s">
+      <c r="L11" s="115" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="121" customFormat="1">
       <c r="A12" s="114" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B12" s="118" t="s">
-        <v>712</v>
+        <v>1304</v>
+      </c>
+      <c r="B12" s="115" t="s">
+        <v>143</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133">
-        <v>44142</v>
-      </c>
-      <c r="F12" s="124" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D12" s="144">
+        <v>44041</v>
+      </c>
+      <c r="E12" s="144">
+        <v>44041</v>
+      </c>
+      <c r="F12" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="120" t="s">
-        <v>1621</v>
-      </c>
-      <c r="H12" s="135" t="s">
-        <v>1616</v>
-      </c>
-      <c r="I12" s="134" t="s">
-        <v>1609</v>
-      </c>
-      <c r="J12" s="136" t="s">
-        <v>25</v>
+      <c r="G12" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H12" s="152" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I12" s="153" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J12" s="154" t="s">
+        <v>1307</v>
       </c>
       <c r="K12" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="115" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="125" customFormat="1">
-      <c r="A13" s="122" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B13" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C13" s="142" t="s">
-        <v>1515</v>
-      </c>
-      <c r="D13" s="143">
-        <v>44162</v>
-      </c>
-      <c r="E13" s="143">
-        <v>44165</v>
-      </c>
-      <c r="F13" s="124" t="s">
+      <c r="A13" s="114" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B13" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="115" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D13" s="134"/>
+      <c r="E13" s="138">
+        <v>44154</v>
+      </c>
+      <c r="F13" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="142" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H13" s="124" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I13" s="142" t="s">
-        <v>1517</v>
-      </c>
-      <c r="J13" s="142" t="s">
-        <v>1549</v>
-      </c>
-      <c r="K13" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="121" customFormat="1">
+      <c r="G13" s="117" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I13" s="134" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J13" s="136" t="s">
+        <v>1636</v>
+      </c>
+      <c r="K13" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="121" customFormat="1" ht="30">
       <c r="A14" s="114" t="s">
-        <v>1421</v>
+        <v>1300</v>
       </c>
       <c r="B14" s="115" t="s">
-        <v>712</v>
+        <v>143</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D14" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E14" s="116">
-        <v>44042</v>
+        <v>1566</v>
+      </c>
+      <c r="D14" s="144">
+        <v>44034</v>
+      </c>
+      <c r="E14" s="144">
+        <v>44034</v>
       </c>
       <c r="F14" s="117" t="s">
         <v>59</v>
       </c>
       <c r="G14" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H14" s="118" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I14" s="119" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J14" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H14" s="152" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I14" s="153" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J14" s="154" t="s">
+        <v>1303</v>
+      </c>
+      <c r="K14" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="120" t="s">
+      <c r="L14" s="115" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="121" customFormat="1">
       <c r="A15" s="114" t="s">
-        <v>1424</v>
+        <v>1304</v>
       </c>
       <c r="B15" s="115" t="s">
-        <v>712</v>
+        <v>143</v>
       </c>
       <c r="C15" s="115" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D15" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E15" s="116">
-        <v>44042</v>
+        <v>1566</v>
+      </c>
+      <c r="D15" s="144">
+        <v>44041</v>
+      </c>
+      <c r="E15" s="144">
+        <v>44041</v>
       </c>
       <c r="F15" s="117" t="s">
         <v>59</v>
       </c>
       <c r="G15" s="117" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H15" s="118" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I15" s="119" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J15" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="120" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H15" s="152" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I15" s="153" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J15" s="154" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K15" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="120" t="s">
+      <c r="L15" s="115" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="121" customFormat="1">
       <c r="A16" s="114" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B16" s="118" t="s">
-        <v>712</v>
+        <v>1562</v>
+      </c>
+      <c r="B16" s="115" t="s">
+        <v>143</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D16" s="128">
-        <v>44099</v>
-      </c>
-      <c r="E16" s="128">
-        <v>44100</v>
-      </c>
-      <c r="F16" s="129" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D16" s="134"/>
+      <c r="E16" s="138">
+        <v>44154</v>
+      </c>
+      <c r="F16" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="129" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H16" s="130" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I16" s="131" t="s">
-        <v>1596</v>
+      <c r="G16" s="117" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H16" s="118" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I16" s="150" t="s">
+        <v>1560</v>
       </c>
       <c r="J16" s="136" t="s">
-        <v>25</v>
+        <v>1636</v>
       </c>
       <c r="K16" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="121" customFormat="1">
+      <c r="L16" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="121" customFormat="1" ht="30">
       <c r="A17" s="114" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B17" s="118" t="s">
-        <v>712</v>
+        <v>1300</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>143</v>
       </c>
       <c r="C17" s="115" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D17" s="133">
-        <v>44113</v>
-      </c>
-      <c r="E17" s="133">
-        <v>44117</v>
-      </c>
-      <c r="F17" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="120" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D17" s="144">
+        <v>44034</v>
+      </c>
+      <c r="E17" s="144">
+        <v>44034</v>
+      </c>
+      <c r="F17" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="117" t="s">
         <v>1598</v>
       </c>
-      <c r="H17" s="135" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I17" s="134" t="s">
-        <v>1412</v>
-      </c>
-      <c r="J17" s="136" t="s">
-        <v>25</v>
+      <c r="H17" s="152" t="s">
+        <v>1301</v>
+      </c>
+      <c r="I17" s="153" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J17" s="154" t="s">
+        <v>1303</v>
       </c>
       <c r="K17" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="125" customFormat="1">
-      <c r="A18" s="122" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B18" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C18" s="142" t="s">
-        <v>1536</v>
-      </c>
-      <c r="D18" s="142"/>
-      <c r="E18" s="143">
-        <v>44158</v>
-      </c>
-      <c r="F18" s="124" t="s">
+      <c r="L17" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="125" customFormat="1" ht="30">
+      <c r="A18" s="114" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B18" s="115" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D18" s="144">
+        <v>44041</v>
+      </c>
+      <c r="E18" s="144">
+        <v>44041</v>
+      </c>
+      <c r="F18" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H18" s="152" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I18" s="153" t="s">
+        <v>1306</v>
+      </c>
+      <c r="J18" s="154" t="s">
+        <v>1307</v>
+      </c>
+      <c r="K18" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="121" customFormat="1">
+      <c r="A19" s="114" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B19" s="118" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="134" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D19" s="133">
+        <v>44142</v>
+      </c>
+      <c r="E19" s="133">
+        <v>44142</v>
+      </c>
+      <c r="F19" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="142" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H18" s="124" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I18" s="142" t="s">
-        <v>1550</v>
-      </c>
-      <c r="J18" s="142" t="s">
-        <v>1618</v>
-      </c>
-      <c r="K18" s="118" t="s">
+      <c r="G19" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H19" s="135" t="s">
+        <v>1635</v>
+      </c>
+      <c r="I19" s="134" t="s">
+        <v>1634</v>
+      </c>
+      <c r="J19" s="134" t="s">
+        <v>1563</v>
+      </c>
+      <c r="K19" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="L18" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A19" s="114" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B19" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="115" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D19" s="144">
-        <v>44034</v>
-      </c>
-      <c r="E19" s="144">
-        <v>44034</v>
-      </c>
-      <c r="F19" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="117" t="s">
-        <v>1599</v>
-      </c>
-      <c r="H19" s="152" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I19" s="153" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J19" s="154" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K19" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="115" t="s">
+      <c r="L19" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="121" customFormat="1" ht="30">
       <c r="A20" s="114" t="s">
-        <v>1304</v>
+        <v>1562</v>
       </c>
       <c r="B20" s="115" t="s">
         <v>143</v>
       </c>
       <c r="C20" s="115" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D20" s="134"/>
+      <c r="E20" s="138">
+        <v>44154</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H20" s="118" t="s">
         <v>1565</v>
       </c>
-      <c r="D20" s="144">
-        <v>44041</v>
-      </c>
-      <c r="E20" s="144">
-        <v>44041</v>
-      </c>
-      <c r="F20" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H20" s="152" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I20" s="153" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J20" s="154" t="s">
-        <v>1307</v>
+      <c r="I20" s="134" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J20" s="136" t="s">
+        <v>1636</v>
       </c>
       <c r="K20" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="115" t="s">
+      <c r="L20" s="120" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="121" customFormat="1">
-      <c r="A21" s="114" t="s">
-        <v>1562</v>
+      <c r="A21" s="122" t="s">
+        <v>1592</v>
       </c>
       <c r="B21" s="118" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="134" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D21" s="133">
-        <v>44142</v>
-      </c>
-      <c r="E21" s="133">
-        <v>44142</v>
-      </c>
-      <c r="F21" s="124" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="118" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D21" s="116">
+        <v>44035</v>
+      </c>
+      <c r="E21" s="116">
+        <v>44037</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="123" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H21" s="152" t="s">
+        <v>1319</v>
+      </c>
+      <c r="I21" s="119" t="s">
+        <v>1320</v>
+      </c>
+      <c r="J21" s="119" t="s">
+        <v>1321</v>
+      </c>
+      <c r="K21" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="118" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="121" customFormat="1">
+      <c r="A22" s="122" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B22" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="118" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D22" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E22" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F22" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="123" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H22" s="152" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I22" s="119" t="s">
+        <v>1330</v>
+      </c>
+      <c r="J22" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="125" customFormat="1">
+      <c r="A23" s="114" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B23" s="115" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="134" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D23" s="133">
+        <v>44137</v>
+      </c>
+      <c r="E23" s="133">
+        <v>44147</v>
+      </c>
+      <c r="F23" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="120" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H21" s="135" t="s">
-        <v>1636</v>
-      </c>
-      <c r="I21" s="134" t="s">
-        <v>1635</v>
-      </c>
-      <c r="J21" s="134" t="s">
-        <v>1564</v>
-      </c>
-      <c r="K21" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="L21" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A22" s="114" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B22" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="115" t="s">
-        <v>1565</v>
-      </c>
-      <c r="D22" s="134"/>
-      <c r="E22" s="138">
-        <v>44154</v>
-      </c>
-      <c r="F22" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="117" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H22" s="118" t="s">
-        <v>1566</v>
-      </c>
-      <c r="I22" s="134" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J22" s="136" t="s">
+      <c r="G23" s="117" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H23" s="142" t="s">
         <v>1637</v>
       </c>
-      <c r="K22" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="125" customFormat="1">
-      <c r="A23" s="122" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B23" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C23" s="118" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D23" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E23" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F23" s="123" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="123" t="s">
-        <v>1602</v>
-      </c>
-      <c r="H23" s="118" t="s">
-        <v>1595</v>
-      </c>
-      <c r="I23" s="119" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J23" s="119" t="s">
-        <v>1426</v>
-      </c>
-      <c r="K23" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="124" t="s">
+      <c r="I23" s="134" t="s">
+        <v>1642</v>
+      </c>
+      <c r="J23" s="134" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K23" s="115" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L23" s="115" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="125" customFormat="1">
       <c r="A24" s="122" t="s">
-        <v>1418</v>
+        <v>1639</v>
       </c>
       <c r="B24" s="118" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="142" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143">
+        <v>44155</v>
+      </c>
+      <c r="F24" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="142" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H24" s="161" t="s">
+        <v>1641</v>
+      </c>
+      <c r="I24" s="142" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J24" s="142" t="s">
+        <v>1640</v>
+      </c>
+      <c r="K24" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="131" customFormat="1">
+      <c r="A25" s="122" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B25" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="C25" s="134" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D25" s="116">
+        <v>44034</v>
+      </c>
+      <c r="E25" s="116">
+        <v>44034</v>
+      </c>
+      <c r="F25" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="118" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="122" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I25" s="168" t="s">
+        <v>1391</v>
+      </c>
+      <c r="J25" s="162" t="s">
+        <v>1392</v>
+      </c>
+      <c r="K25" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="121" customFormat="1">
+      <c r="A26" s="122" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="C26" s="134" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116">
+        <v>44063</v>
+      </c>
+      <c r="F26" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="118" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H26" s="118" t="s">
+        <v>1650</v>
+      </c>
+      <c r="I26" s="160" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J26" s="163" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="121" customFormat="1">
+      <c r="A27" s="122" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B27" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="C27" s="134" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116">
+        <v>44089</v>
+      </c>
+      <c r="F27" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="118" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H27" s="118" t="s">
+        <v>1653</v>
+      </c>
+      <c r="I27" s="160" t="s">
+        <v>1649</v>
+      </c>
+      <c r="J27" s="163" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="118" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="97" customFormat="1">
+      <c r="A28" s="122" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B28" s="118" t="s">
+        <v>503</v>
+      </c>
+      <c r="C28" s="134" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116">
+        <v>44161</v>
+      </c>
+      <c r="F28" s="118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="118" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H28" s="122" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I28" s="160" t="s">
+        <v>1646</v>
+      </c>
+      <c r="J28" s="163" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K28" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="125" customFormat="1" ht="30">
+      <c r="A29" s="114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B29" s="115" t="s">
         <v>712</v>
       </c>
-      <c r="C24" s="118" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D24" s="116">
-        <v>44041</v>
-      </c>
-      <c r="E24" s="116">
-        <v>44043</v>
-      </c>
-      <c r="F24" s="123" t="s">
+      <c r="C29" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D29" s="116">
+        <v>44032</v>
+      </c>
+      <c r="E29" s="116">
+        <v>44036</v>
+      </c>
+      <c r="F29" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="123" t="s">
+      <c r="G29" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H29" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I29" s="165" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J29" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K29" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="L29" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="125" customFormat="1">
+      <c r="A30" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B30" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D30" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E30" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F30" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="117" t="s">
         <v>1599</v>
       </c>
-      <c r="H24" s="118" t="s">
-        <v>1419</v>
-      </c>
-      <c r="I24" s="119" t="s">
-        <v>1420</v>
-      </c>
-      <c r="J24" s="119" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K24" s="124" t="s">
-        <v>91</v>
-      </c>
-      <c r="L24" s="124" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="131" customFormat="1">
-      <c r="A25" s="126" t="s">
+      <c r="H30" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I30" s="165" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J30" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="121" customFormat="1">
+      <c r="A31" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B31" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D31" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E31" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F31" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H31" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I31" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J31" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="121" customFormat="1">
+      <c r="A32" s="114" t="s">
         <v>1502</v>
       </c>
-      <c r="B25" s="127" t="s">
+      <c r="B32" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C25" s="127" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D25" s="128">
+      <c r="C32" s="115" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D32" s="128">
         <v>44099</v>
       </c>
-      <c r="E25" s="128">
+      <c r="E32" s="128">
         <v>44100</v>
       </c>
-      <c r="F25" s="129" t="s">
+      <c r="F32" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="129" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H25" s="130" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I25" s="131" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J25" s="130" t="s">
+      <c r="G32" s="129" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H32" s="130" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I32" s="130" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J32" s="130" t="s">
         <v>1503</v>
       </c>
-      <c r="K25" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A26" s="114" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B26" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C26" s="118" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D26" s="133">
-        <v>44113</v>
-      </c>
-      <c r="E26" s="133">
-        <v>44114</v>
-      </c>
-      <c r="F26" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="120" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H26" s="134" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I26" s="134" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J26" s="134" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K26" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="L26" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="121" customFormat="1">
-      <c r="A27" s="114" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B27" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D27" s="133">
-        <v>44113</v>
-      </c>
-      <c r="E27" s="133">
-        <v>44117</v>
-      </c>
-      <c r="F27" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="120" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H27" s="135" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I27" s="134" t="s">
-        <v>1412</v>
-      </c>
-      <c r="J27" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="L27" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="97" customFormat="1">
-      <c r="A28" s="140" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B28" s="110" t="s">
-        <v>712</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D28" s="111">
-        <v>44138</v>
-      </c>
-      <c r="E28" s="111">
-        <v>44149</v>
-      </c>
-      <c r="F28" s="103" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28" s="149" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H28" s="141" t="s">
-        <v>1611</v>
-      </c>
-      <c r="I28" s="101" t="s">
-        <v>1508</v>
-      </c>
-      <c r="J28" s="101" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="L28" s="113" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="125" customFormat="1">
-      <c r="A29" s="122" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B29" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C29" s="142" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D29" s="143">
-        <v>44155</v>
-      </c>
-      <c r="E29" s="143">
-        <v>44158</v>
-      </c>
-      <c r="F29" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="142" t="s">
-        <v>1624</v>
-      </c>
-      <c r="H29" s="124" t="s">
-        <v>1613</v>
-      </c>
-      <c r="I29" s="125" t="s">
-        <v>1612</v>
-      </c>
-      <c r="J29" s="142" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K29" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="L29" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="125" customFormat="1">
-      <c r="A30" s="122" t="s">
-        <v>1640</v>
-      </c>
-      <c r="B30" s="118" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="142" t="s">
-        <v>1582</v>
-      </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143">
-        <v>44155</v>
-      </c>
-      <c r="F30" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="142" t="s">
-        <v>1583</v>
-      </c>
-      <c r="H30" s="161" t="s">
-        <v>1642</v>
-      </c>
-      <c r="I30" s="125" t="s">
-        <v>1639</v>
-      </c>
-      <c r="J30" s="142" t="s">
-        <v>1641</v>
-      </c>
-      <c r="K30" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="L30" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="121" customFormat="1">
-      <c r="A31" s="122" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B31" s="118" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C31" s="118" t="s">
-        <v>1586</v>
-      </c>
-      <c r="D31" s="116">
-        <v>44033</v>
-      </c>
-      <c r="E31" s="116">
-        <v>44033</v>
-      </c>
-      <c r="F31" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="124" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H31" s="122" t="s">
-        <v>1486</v>
-      </c>
-      <c r="I31" s="160" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J31" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="K31" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="121" customFormat="1">
-      <c r="A32" s="122" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B32" s="118" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C32" s="118" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D32" s="116">
-        <v>44033</v>
-      </c>
-      <c r="E32" s="116">
-        <v>44033</v>
-      </c>
-      <c r="F32" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" s="124" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H32" s="122" t="s">
-        <v>1486</v>
-      </c>
-      <c r="I32" s="160" t="s">
-        <v>1487</v>
-      </c>
-      <c r="J32" s="136" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="118" t="s">
+      <c r="K32" s="115" t="s">
         <v>18</v>
       </c>
       <c r="L32" s="132" t="s">
@@ -53648,227 +53639,227 @@
     </row>
     <row r="33" spans="1:12" s="121" customFormat="1">
       <c r="A33" s="114" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B33" s="115" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B33" s="118" t="s">
         <v>712</v>
       </c>
       <c r="C33" s="115" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D33" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E33" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F33" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H33" s="118" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I33" s="119" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J33" s="137" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D33" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E33" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F33" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H33" s="135" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I33" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J33" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="120" t="s">
+      <c r="K33" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="120" t="s">
+      <c r="L33" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="121" customFormat="1">
       <c r="A34" s="114" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B34" s="115" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B34" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C34" s="115" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D34" s="116">
+      <c r="C34" s="134" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D34" s="133">
+        <v>44148</v>
+      </c>
+      <c r="E34" s="133">
+        <v>44151</v>
+      </c>
+      <c r="F34" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="134" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H34" s="134" t="s">
+        <v>1628</v>
+      </c>
+      <c r="I34" s="150" t="s">
+        <v>1629</v>
+      </c>
+      <c r="J34" s="134" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K34" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L34" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A35" s="114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B35" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D35" s="116">
+        <v>44032</v>
+      </c>
+      <c r="E35" s="116">
+        <v>44036</v>
+      </c>
+      <c r="F35" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H35" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I35" s="119" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J35" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K35" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="121" customFormat="1">
+      <c r="A36" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B36" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C36" s="115" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D36" s="116">
         <v>44042</v>
       </c>
-      <c r="E34" s="116">
+      <c r="E36" s="116">
         <v>44042</v>
       </c>
-      <c r="F34" s="117" t="s">
+      <c r="F36" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="117" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H34" s="118" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I34" s="119" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J34" s="137" t="s">
+      <c r="G36" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H36" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I36" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J36" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="K34" s="120" t="s">
+      <c r="K36" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="121" customFormat="1">
-      <c r="A35" s="114" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B35" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C35" s="115" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D35" s="128">
-        <v>44099</v>
-      </c>
-      <c r="E35" s="128">
-        <v>44100</v>
-      </c>
-      <c r="F35" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="129" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H35" s="130" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I35" s="131" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J35" s="130" t="s">
-        <v>1503</v>
-      </c>
-      <c r="K35" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A36" s="114" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B36" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C36" s="134" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D36" s="133">
-        <v>44113</v>
-      </c>
-      <c r="E36" s="133">
-        <v>44114</v>
-      </c>
-      <c r="F36" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="120" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H36" s="134" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I36" s="134" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J36" s="134" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K36" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="L36" s="132" t="s">
+      <c r="L36" s="120" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="121" customFormat="1">
       <c r="A37" s="114" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B37" s="118" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B37" s="115" t="s">
         <v>712</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D37" s="133">
-        <v>44113</v>
-      </c>
-      <c r="E37" s="133">
-        <v>44117</v>
-      </c>
-      <c r="F37" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="120" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H37" s="135" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I37" s="134" t="s">
-        <v>1412</v>
-      </c>
-      <c r="J37" s="136" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D37" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E37" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F37" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G37" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H37" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I37" s="165" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J37" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="132" t="s">
+      <c r="K37" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="120" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="121" customFormat="1">
       <c r="A38" s="114" t="s">
-        <v>1514</v>
+        <v>1502</v>
       </c>
       <c r="B38" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C38" s="134" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D38" s="133">
-        <v>44138</v>
-      </c>
-      <c r="E38" s="133">
-        <v>44142</v>
-      </c>
-      <c r="F38" s="124" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" s="139" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H38" s="139" t="s">
-        <v>1617</v>
-      </c>
-      <c r="I38" s="121" t="s">
+      <c r="C38" s="115" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D38" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E38" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F38" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="129" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H38" s="130" t="s">
         <v>1609</v>
       </c>
-      <c r="J38" s="134" t="s">
-        <v>1524</v>
+      <c r="I38" s="130" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J38" s="130" t="s">
+        <v>1503</v>
       </c>
       <c r="K38" s="115" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="L38" s="132" t="s">
         <v>19</v>
@@ -53876,77 +53867,77 @@
     </row>
     <row r="39" spans="1:12" s="121" customFormat="1">
       <c r="A39" s="114" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B39" s="115" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B39" s="118" t="s">
         <v>712</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>1560</v>
-      </c>
-      <c r="D39" s="116">
-        <v>44025</v>
-      </c>
-      <c r="E39" s="116">
-        <v>44039</v>
-      </c>
-      <c r="F39" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" s="117" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H39" s="118" t="s">
-        <v>1414</v>
-      </c>
-      <c r="I39" s="119" t="s">
-        <v>1411</v>
-      </c>
-      <c r="J39" s="124" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D39" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E39" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F39" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H39" s="135" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I39" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J39" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="124" t="s">
+      <c r="K39" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L39" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A40" s="114" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B40" s="115" t="s">
+      <c r="L39" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="121" customFormat="1">
+      <c r="A40" s="122" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B40" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C40" s="115" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D40" s="116">
-        <v>44032</v>
-      </c>
-      <c r="E40" s="116">
-        <v>44036</v>
-      </c>
-      <c r="F40" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="117" t="s">
-        <v>1599</v>
-      </c>
-      <c r="H40" s="118" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I40" s="119" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J40" s="119" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K40" s="120" t="s">
+      <c r="C40" s="142" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D40" s="143">
+        <v>44148</v>
+      </c>
+      <c r="E40" s="143">
+        <v>44151</v>
+      </c>
+      <c r="F40" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="142" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H40" s="124" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I40" s="142" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J40" s="142" t="s">
+        <v>1531</v>
+      </c>
+      <c r="K40" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="120" t="s">
+      <c r="L40" s="132" t="s">
         <v>19</v>
       </c>
     </row>
@@ -53958,7 +53949,7 @@
         <v>712</v>
       </c>
       <c r="C41" s="115" t="s">
-        <v>1535</v>
+        <v>1553</v>
       </c>
       <c r="D41" s="116">
         <v>44042</v>
@@ -53970,12 +53961,12 @@
         <v>59</v>
       </c>
       <c r="G41" s="117" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H41" s="118" t="s">
         <v>1422</v>
       </c>
-      <c r="I41" s="119" t="s">
+      <c r="I41" s="165" t="s">
         <v>1423</v>
       </c>
       <c r="J41" s="137" t="s">
@@ -53996,7 +53987,7 @@
         <v>712</v>
       </c>
       <c r="C42" s="115" t="s">
-        <v>1535</v>
+        <v>1553</v>
       </c>
       <c r="D42" s="116">
         <v>44042</v>
@@ -54008,7 +53999,7 @@
         <v>59</v>
       </c>
       <c r="G42" s="117" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H42" s="118" t="s">
         <v>1425</v>
@@ -54034,7 +54025,7 @@
         <v>712</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>1535</v>
+        <v>1553</v>
       </c>
       <c r="D43" s="128">
         <v>44099</v>
@@ -54046,13 +54037,13 @@
         <v>13</v>
       </c>
       <c r="G43" s="129" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H43" s="130" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I43" s="131" t="s">
-        <v>1596</v>
+        <v>1609</v>
+      </c>
+      <c r="I43" s="130" t="s">
+        <v>1595</v>
       </c>
       <c r="J43" s="130" t="s">
         <v>1503</v>
@@ -54064,21 +54055,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="121" customFormat="1" ht="30">
+    <row r="44" spans="1:12" s="150" customFormat="1">
       <c r="A44" s="114" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="B44" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C44" s="134" t="s">
-        <v>1535</v>
+      <c r="C44" s="115" t="s">
+        <v>1553</v>
       </c>
       <c r="D44" s="133">
         <v>44113</v>
       </c>
       <c r="E44" s="133">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="F44" s="124" t="s">
         <v>13</v>
@@ -54086,14 +54077,14 @@
       <c r="G44" s="120" t="s">
         <v>1597</v>
       </c>
-      <c r="H44" s="134" t="s">
-        <v>1615</v>
+      <c r="H44" s="135" t="s">
+        <v>1613</v>
       </c>
       <c r="I44" s="134" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J44" s="134" t="s">
-        <v>1521</v>
+        <v>1412</v>
+      </c>
+      <c r="J44" s="136" t="s">
+        <v>25</v>
       </c>
       <c r="K44" s="115" t="s">
         <v>18</v>
@@ -54103,822 +54094,828 @@
       </c>
     </row>
     <row r="45" spans="1:12" s="121" customFormat="1">
-      <c r="A45" s="114" t="s">
-        <v>1509</v>
-      </c>
+      <c r="A45" s="114"/>
       <c r="B45" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C45" s="115" t="s">
+      <c r="C45" s="134" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D45" s="134"/>
+      <c r="E45" s="138">
+        <v>44172</v>
+      </c>
+      <c r="F45" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="134" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H45" s="134" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I45" s="134" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J45" s="136"/>
+      <c r="K45" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A46" s="114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B46" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C46" s="115" t="s">
         <v>1535</v>
       </c>
-      <c r="D45" s="133">
+      <c r="D46" s="116">
+        <v>44032</v>
+      </c>
+      <c r="E46" s="116">
+        <v>44036</v>
+      </c>
+      <c r="F46" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H46" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I46" s="119" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J46" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K46" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="L46" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" s="97" customFormat="1">
+      <c r="A47" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B47" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C47" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D47" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E47" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F47" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H47" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I47" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J47" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="97" customFormat="1">
+      <c r="A48" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B48" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C48" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D48" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E48" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F48" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H48" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I48" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J48" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="121" customFormat="1">
+      <c r="A49" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B49" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C49" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D49" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E49" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F49" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="129" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H49" s="130" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I49" s="130" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J49" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K49" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="121" customFormat="1">
+      <c r="A50" s="114" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B50" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C50" s="115" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D50" s="133">
         <v>44113</v>
       </c>
-      <c r="E45" s="133">
+      <c r="E50" s="133">
         <v>44117</v>
       </c>
-      <c r="F45" s="124" t="s">
+      <c r="F50" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="120" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H45" s="135" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I45" s="134" t="s">
+      <c r="G50" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H50" s="135" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I50" s="150" t="s">
         <v>1412</v>
       </c>
-      <c r="J45" s="136" t="s">
+      <c r="J50" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="115" t="s">
+      <c r="K50" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="150" customFormat="1">
-      <c r="A46" s="134"/>
-      <c r="B46" s="134" t="s">
+      <c r="L50" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="121" customFormat="1">
+      <c r="A51" s="134"/>
+      <c r="B51" s="134" t="s">
         <v>712</v>
       </c>
-      <c r="C46" s="134" t="s">
+      <c r="C51" s="134" t="s">
         <v>1535</v>
       </c>
-      <c r="D46" s="133">
+      <c r="D51" s="133">
         <v>44141</v>
       </c>
-      <c r="E46" s="133">
+      <c r="E51" s="133">
         <v>44142</v>
       </c>
-      <c r="F46" s="134" t="s">
+      <c r="F51" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="G46" s="134" t="s">
+      <c r="G51" s="134" t="s">
+        <v>1618</v>
+      </c>
+      <c r="H51" s="134" t="s">
         <v>1619</v>
       </c>
-      <c r="H46" s="134" t="s">
-        <v>1620</v>
-      </c>
-      <c r="I46" s="134" t="s">
+      <c r="I51" s="134" t="s">
         <v>1412</v>
       </c>
-      <c r="J46" s="134" t="s">
+      <c r="J51" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="K46" s="134" t="s">
+      <c r="K51" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="L46" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" s="121" customFormat="1">
-      <c r="A47" s="114" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B47" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C47" s="134" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D47" s="133">
-        <v>44148</v>
-      </c>
-      <c r="E47" s="133">
-        <v>44151</v>
-      </c>
-      <c r="F47" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="134" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H47" s="134" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I47" s="134" t="s">
-        <v>1551</v>
-      </c>
-      <c r="J47" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K47" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="L47" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" s="121" customFormat="1">
-      <c r="A48" s="114"/>
-      <c r="B48" s="115" t="s">
-        <v>950</v>
-      </c>
-      <c r="C48" s="115" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D48" s="144">
-        <v>44104</v>
-      </c>
-      <c r="E48" s="144">
-        <v>44105</v>
-      </c>
-      <c r="F48" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="117" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H48" s="152" t="s">
-        <v>1592</v>
-      </c>
-      <c r="I48" s="153" t="s">
-        <v>1589</v>
-      </c>
-      <c r="J48" s="154" t="s">
-        <v>1591</v>
-      </c>
-      <c r="K48" s="115" t="s">
-        <v>91</v>
-      </c>
-      <c r="L48" s="115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="97" customFormat="1" ht="30">
-      <c r="A49" s="155" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B49" s="112" t="s">
-        <v>950</v>
-      </c>
-      <c r="C49" s="101" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D49" s="111">
-        <v>44102</v>
-      </c>
-      <c r="E49" s="111">
-        <v>44132</v>
-      </c>
-      <c r="F49" s="156" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G49" s="156" t="s">
-        <v>1581</v>
-      </c>
-      <c r="H49" s="157" t="s">
-        <v>1571</v>
-      </c>
-      <c r="I49" s="101" t="s">
-        <v>1579</v>
-      </c>
-      <c r="J49" s="158" t="s">
-        <v>25</v>
-      </c>
-      <c r="K49" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="L49" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="97" customFormat="1" ht="30">
-      <c r="A50" s="109" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B50" s="112" t="s">
-        <v>950</v>
-      </c>
-      <c r="C50" s="101" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D50" s="111">
-        <v>44154</v>
-      </c>
-      <c r="E50" s="111">
-        <v>44154</v>
-      </c>
-      <c r="F50" s="156" t="s">
-        <v>1590</v>
-      </c>
-      <c r="G50" s="156" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H50" s="157" t="s">
-        <v>1571</v>
-      </c>
-      <c r="I50" s="157" t="s">
-        <v>1574</v>
-      </c>
-      <c r="J50" s="157" t="s">
-        <v>1574</v>
-      </c>
-      <c r="K50" s="112" t="s">
-        <v>91</v>
-      </c>
-      <c r="L50" s="112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="121" customFormat="1">
-      <c r="A51" s="114" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B51" s="115" t="s">
-        <v>712</v>
-      </c>
-      <c r="C51" s="115" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D51" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E51" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F51" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G51" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H51" s="118" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I51" s="119" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J51" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="K51" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="120" t="s">
+      <c r="L51" s="134" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:12" s="121" customFormat="1">
       <c r="A52" s="114" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B52" s="115" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B52" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C52" s="115" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D52" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E52" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F52" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="117" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H52" s="118" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I52" s="119" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J52" s="137" t="s">
+      <c r="C52" s="134" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D52" s="133">
+        <v>44148</v>
+      </c>
+      <c r="E52" s="133">
+        <v>44151</v>
+      </c>
+      <c r="F52" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="134" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H52" s="134" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I52" s="134" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J52" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="K52" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="120" t="s">
+      <c r="K52" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L52" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="121" customFormat="1">
       <c r="A53" s="114" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B53" s="118" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B53" s="115" t="s">
         <v>712</v>
       </c>
       <c r="C53" s="115" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D53" s="128">
-        <v>44099</v>
-      </c>
-      <c r="E53" s="128">
-        <v>44100</v>
-      </c>
-      <c r="F53" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="129" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H53" s="130" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I53" s="131" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J53" s="130" t="s">
-        <v>1503</v>
-      </c>
-      <c r="K53" s="115" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D53" s="116">
+        <v>44025</v>
+      </c>
+      <c r="E53" s="116">
+        <v>44039</v>
+      </c>
+      <c r="F53" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H53" s="118" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I53" s="119" t="s">
+        <v>1411</v>
+      </c>
+      <c r="J53" s="124" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="L53" s="132" t="s">
+      <c r="L53" s="120" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:12" s="121" customFormat="1">
       <c r="A54" s="114" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B54" s="118" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B54" s="115" t="s">
         <v>712</v>
       </c>
       <c r="C54" s="115" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D54" s="133">
-        <v>44113</v>
-      </c>
-      <c r="E54" s="133">
-        <v>44117</v>
-      </c>
-      <c r="F54" s="124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="120" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H54" s="135" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I54" s="134" t="s">
-        <v>1412</v>
-      </c>
-      <c r="J54" s="136" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D54" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E54" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F54" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H54" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I54" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J54" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="K54" s="115" t="s">
+      <c r="K54" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="L54" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="L54" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" s="121" customFormat="1">
       <c r="A55" s="114" t="s">
-        <v>1300</v>
+        <v>1424</v>
       </c>
       <c r="B55" s="115" t="s">
-        <v>143</v>
+        <v>712</v>
       </c>
       <c r="C55" s="115" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D55" s="144">
-        <v>44034</v>
-      </c>
-      <c r="E55" s="144">
-        <v>44034</v>
+        <v>1499</v>
+      </c>
+      <c r="D55" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E55" s="116">
+        <v>44042</v>
       </c>
       <c r="F55" s="117" t="s">
         <v>59</v>
       </c>
       <c r="G55" s="117" t="s">
-        <v>1599</v>
-      </c>
-      <c r="H55" s="152" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I55" s="153" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J55" s="154" t="s">
-        <v>1303</v>
-      </c>
-      <c r="K55" s="115" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H55" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I55" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J55" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="L55" s="115" t="s">
+      <c r="L55" s="120" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:12" s="121" customFormat="1">
       <c r="A56" s="114" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B56" s="115" t="s">
-        <v>143</v>
+        <v>1502</v>
+      </c>
+      <c r="B56" s="118" t="s">
+        <v>712</v>
       </c>
       <c r="C56" s="115" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D56" s="144">
-        <v>44041</v>
-      </c>
-      <c r="E56" s="144">
-        <v>44041</v>
-      </c>
-      <c r="F56" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H56" s="152" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I56" s="153" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J56" s="154" t="s">
-        <v>1307</v>
+        <v>1499</v>
+      </c>
+      <c r="D56" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E56" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F56" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="129" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H56" s="130" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I56" s="130" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J56" s="130" t="s">
+        <v>1503</v>
       </c>
       <c r="K56" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="121" customFormat="1">
+      <c r="L56" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="121" customFormat="1" ht="30">
       <c r="A57" s="114" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B57" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="C57" s="115" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D57" s="134"/>
-      <c r="E57" s="138">
-        <v>44154</v>
-      </c>
-      <c r="F57" s="117" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B57" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C57" s="134" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D57" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E57" s="133">
+        <v>44114</v>
+      </c>
+      <c r="F57" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="117" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H57" s="118" t="s">
-        <v>1566</v>
+      <c r="G57" s="120" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H57" s="134" t="s">
+        <v>1614</v>
       </c>
       <c r="I57" s="134" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J57" s="136" t="s">
-        <v>1637</v>
+        <v>1506</v>
+      </c>
+      <c r="J57" s="134" t="s">
+        <v>1521</v>
       </c>
       <c r="K57" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L57" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" s="121" customFormat="1" ht="30">
+        <v>91</v>
+      </c>
+      <c r="L57" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" s="121" customFormat="1">
       <c r="A58" s="114" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B58" s="115" t="s">
-        <v>143</v>
+        <v>1509</v>
+      </c>
+      <c r="B58" s="118" t="s">
+        <v>712</v>
       </c>
       <c r="C58" s="115" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D58" s="144">
-        <v>44034</v>
-      </c>
-      <c r="E58" s="144">
-        <v>44034</v>
-      </c>
-      <c r="F58" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="117" t="s">
-        <v>1599</v>
-      </c>
-      <c r="H58" s="152" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I58" s="153" t="s">
-        <v>1302</v>
-      </c>
-      <c r="J58" s="154" t="s">
-        <v>1303</v>
+        <v>1499</v>
+      </c>
+      <c r="D58" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E58" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F58" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H58" s="135" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I58" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J58" s="136" t="s">
+        <v>25</v>
       </c>
       <c r="K58" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L58" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="121" customFormat="1">
       <c r="A59" s="114" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B59" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="C59" s="115" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D59" s="144">
-        <v>44041</v>
-      </c>
-      <c r="E59" s="144">
-        <v>44041</v>
-      </c>
-      <c r="F59" s="117" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B59" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C59" s="134" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D59" s="133">
+        <v>44138</v>
+      </c>
+      <c r="E59" s="133">
+        <v>44142</v>
+      </c>
+      <c r="F59" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H59" s="152" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I59" s="153" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J59" s="154" t="s">
-        <v>1307</v>
+      <c r="G59" s="139" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H59" s="139" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I59" s="134" t="s">
+        <v>1608</v>
+      </c>
+      <c r="J59" s="134" t="s">
+        <v>1524</v>
       </c>
       <c r="K59" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" s="121" customFormat="1">
+      <c r="A60" s="122" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B60" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C60" s="118" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D60" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E60" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F60" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G60" s="123" t="s">
+        <v>1601</v>
+      </c>
+      <c r="H60" s="118" t="s">
+        <v>1594</v>
+      </c>
+      <c r="I60" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J60" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="K60" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="L59" s="115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" s="121" customFormat="1">
-      <c r="A60" s="114" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B60" s="115" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="115" t="s">
-        <v>1568</v>
-      </c>
-      <c r="D60" s="134"/>
-      <c r="E60" s="138">
-        <v>44154</v>
-      </c>
-      <c r="F60" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="117" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H60" s="118" t="s">
-        <v>1566</v>
-      </c>
-      <c r="I60" s="134" t="s">
-        <v>1561</v>
-      </c>
-      <c r="J60" s="136" t="s">
-        <v>1637</v>
-      </c>
-      <c r="K60" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L60" s="120" t="s">
+      <c r="L60" s="124" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:12" s="121" customFormat="1">
-      <c r="A61" s="114"/>
+      <c r="A61" s="122" t="s">
+        <v>1418</v>
+      </c>
       <c r="B61" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C61" s="134" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D61" s="134"/>
-      <c r="E61" s="138">
-        <v>44172</v>
-      </c>
-      <c r="F61" s="117" t="s">
+      <c r="C61" s="118" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D61" s="116">
+        <v>44041</v>
+      </c>
+      <c r="E61" s="116">
+        <v>44043</v>
+      </c>
+      <c r="F61" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" s="123" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H61" s="118" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I61" s="119" t="s">
+        <v>1420</v>
+      </c>
+      <c r="J61" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K61" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="L61" s="124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="121" customFormat="1">
+      <c r="A62" s="126" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B62" s="127" t="s">
+        <v>712</v>
+      </c>
+      <c r="C62" s="127" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D62" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E62" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F62" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="134" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H61" s="134" t="s">
-        <v>1628</v>
-      </c>
-      <c r="I61" s="134" t="s">
-        <v>1549</v>
-      </c>
-      <c r="J61" s="136"/>
-      <c r="K61" s="115" t="s">
+      <c r="G62" s="129" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H62" s="130" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I62" s="167" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J62" s="130" t="s">
+        <v>1503</v>
+      </c>
+      <c r="K62" s="127" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="A63" s="114" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B63" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C63" s="118" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D63" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E63" s="133">
+        <v>44114</v>
+      </c>
+      <c r="F63" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="120" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H63" s="134" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I63" s="134" t="s">
+        <v>1506</v>
+      </c>
+      <c r="J63" s="134" t="s">
+        <v>1521</v>
+      </c>
+      <c r="K63" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="L61" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A62" s="114" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B62" s="115" t="s">
-        <v>712</v>
-      </c>
-      <c r="C62" s="115" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D62" s="116">
-        <v>44032</v>
-      </c>
-      <c r="E62" s="116">
-        <v>44036</v>
-      </c>
-      <c r="F62" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G62" s="117" t="s">
-        <v>1599</v>
-      </c>
-      <c r="H62" s="118" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I62" s="119" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J62" s="119" t="s">
-        <v>1412</v>
-      </c>
-      <c r="K62" s="120" t="s">
-        <v>91</v>
-      </c>
-      <c r="L62" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="121" customFormat="1">
-      <c r="A63" s="114" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B63" s="115" t="s">
-        <v>712</v>
-      </c>
-      <c r="C63" s="115" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D63" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E63" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F63" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G63" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H63" s="118" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I63" s="119" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J63" s="137" t="s">
-        <v>25</v>
-      </c>
-      <c r="K63" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="120" t="s">
+      <c r="L63" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:12" s="121" customFormat="1">
       <c r="A64" s="114" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B64" s="115" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B64" s="118" t="s">
         <v>712</v>
       </c>
       <c r="C64" s="115" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D64" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E64" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F64" s="117" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D64" s="133">
+        <v>44113</v>
+      </c>
+      <c r="E64" s="133">
+        <v>44117</v>
+      </c>
+      <c r="F64" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H64" s="135" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I64" s="134" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J64" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L64" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" s="125" customFormat="1">
+      <c r="A65" s="140" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B65" s="110" t="s">
+        <v>712</v>
+      </c>
+      <c r="C65" s="101" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D65" s="111">
+        <v>44138</v>
+      </c>
+      <c r="E65" s="111">
+        <v>44149</v>
+      </c>
+      <c r="F65" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="117" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H64" s="118" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I64" s="119" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J64" s="137" t="s">
+      <c r="G65" s="149" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H65" s="141" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I65" s="166" t="s">
+        <v>1508</v>
+      </c>
+      <c r="J65" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="K64" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="L64" s="120" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" s="121" customFormat="1">
-      <c r="A65" s="114" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B65" s="118" t="s">
-        <v>712</v>
-      </c>
-      <c r="C65" s="115" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D65" s="128">
-        <v>44099</v>
-      </c>
-      <c r="E65" s="128">
-        <v>44100</v>
-      </c>
-      <c r="F65" s="129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="129" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H65" s="130" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I65" s="131" t="s">
-        <v>1596</v>
-      </c>
-      <c r="J65" s="130" t="s">
-        <v>1503</v>
-      </c>
-      <c r="K65" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L65" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="121" customFormat="1" ht="30">
-      <c r="A66" s="114" t="s">
-        <v>1505</v>
+      <c r="K65" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="L65" s="113" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" s="121" customFormat="1">
+      <c r="A66" s="122" t="s">
+        <v>1546</v>
       </c>
       <c r="B66" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C66" s="134" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D66" s="133">
-        <v>44113</v>
-      </c>
-      <c r="E66" s="133">
-        <v>44114</v>
+      <c r="C66" s="142" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D66" s="143">
+        <v>44155</v>
+      </c>
+      <c r="E66" s="143">
+        <v>44158</v>
       </c>
       <c r="F66" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G66" s="120" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H66" s="134" t="s">
-        <v>1615</v>
-      </c>
-      <c r="I66" s="134" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J66" s="134" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K66" s="115" t="s">
-        <v>18</v>
+      <c r="G66" s="142" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H66" s="124" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I66" s="142" t="s">
+        <v>1611</v>
+      </c>
+      <c r="J66" s="142" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K66" s="118" t="s">
+        <v>91</v>
       </c>
       <c r="L66" s="132" t="s">
         <v>19</v>
@@ -54926,203 +54923,207 @@
     </row>
     <row r="67" spans="1:12" s="121" customFormat="1">
       <c r="A67" s="114" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B67" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C67" s="115" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D67" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E67" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F67" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="117" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H67" s="118" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I67" s="119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J67" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="121" customFormat="1">
+      <c r="A68" s="114" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B68" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C68" s="115" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D68" s="116">
+        <v>44042</v>
+      </c>
+      <c r="E68" s="116">
+        <v>44042</v>
+      </c>
+      <c r="F68" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="H68" s="118" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I68" s="119" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J68" s="137" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" s="121" customFormat="1">
+      <c r="A69" s="114" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B69" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C69" s="115" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D69" s="128">
+        <v>44099</v>
+      </c>
+      <c r="E69" s="128">
+        <v>44100</v>
+      </c>
+      <c r="F69" s="129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="129" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H69" s="130" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I69" s="130" t="s">
+        <v>1595</v>
+      </c>
+      <c r="J69" s="136" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="121" customFormat="1">
+      <c r="A70" s="114" t="s">
         <v>1509</v>
       </c>
-      <c r="B67" s="118" t="s">
+      <c r="B70" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C67" s="115" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D67" s="133">
+      <c r="C70" s="115" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D70" s="133">
         <v>44113</v>
       </c>
-      <c r="E67" s="133">
+      <c r="E70" s="133">
         <v>44117</v>
       </c>
-      <c r="F67" s="124" t="s">
+      <c r="F70" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="120" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H67" s="135" t="s">
-        <v>1614</v>
-      </c>
-      <c r="I67" s="134" t="s">
+      <c r="G70" s="120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H70" s="135" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I70" s="134" t="s">
         <v>1412</v>
       </c>
-      <c r="J67" s="136" t="s">
+      <c r="J70" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="K67" s="115" t="s">
+      <c r="K70" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="125" customFormat="1">
-      <c r="A68" s="122" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B68" s="118" t="s">
+      <c r="L70" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="121" customFormat="1">
+      <c r="A71" s="122" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B71" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C68" s="142" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D68" s="143">
-        <v>44148</v>
-      </c>
-      <c r="E68" s="143">
-        <v>44151</v>
-      </c>
-      <c r="F68" s="124" t="s">
+      <c r="C71" s="142" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D71" s="142"/>
+      <c r="E71" s="143">
+        <v>44158</v>
+      </c>
+      <c r="F71" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="142" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H68" s="124" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I68" s="125" t="s">
-        <v>1627</v>
-      </c>
-      <c r="J68" s="142" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K68" s="118" t="s">
+      <c r="G71" s="142" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H71" s="124" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I71" s="142" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J71" s="142" t="s">
+        <v>1617</v>
+      </c>
+      <c r="K71" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="L68" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" s="121" customFormat="1">
-      <c r="A69" s="134" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B69" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="134" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D69" s="133"/>
-      <c r="E69" s="133">
-        <v>44159</v>
-      </c>
-      <c r="F69" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="117" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H69" s="134" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I69" s="134" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J69" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K69" s="134" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L69" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" s="121" customFormat="1">
-      <c r="A70" s="134" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B70" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" s="134" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D70" s="134"/>
-      <c r="E70" s="133">
-        <v>44162</v>
-      </c>
-      <c r="F70" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" s="134" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H70" s="134" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I70" s="134" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J70" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K70" s="134" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L70" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" s="121" customFormat="1">
-      <c r="A71" s="134" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B71" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="134" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D71" s="134"/>
-      <c r="E71" s="133">
-        <v>44165</v>
-      </c>
-      <c r="F71" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="134" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H71" s="134" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I71" s="134" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J71" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K71" s="134" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L71" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" s="121" customFormat="1" ht="30">
+      <c r="L71" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="121" customFormat="1">
       <c r="A72" s="114" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="B72" s="115" t="s">
         <v>712</v>
       </c>
       <c r="C72" s="115" t="s">
-        <v>1532</v>
+        <v>1515</v>
       </c>
       <c r="D72" s="116">
-        <v>44032</v>
+        <v>44042</v>
       </c>
       <c r="E72" s="116">
-        <v>44036</v>
+        <v>44042</v>
       </c>
       <c r="F72" s="117" t="s">
         <v>59</v>
@@ -55131,94 +55132,94 @@
         <v>1599</v>
       </c>
       <c r="H72" s="118" t="s">
-        <v>1416</v>
-      </c>
-      <c r="I72" s="119" t="s">
-        <v>1417</v>
-      </c>
-      <c r="J72" s="119" t="s">
-        <v>1412</v>
+        <v>1422</v>
+      </c>
+      <c r="I72" s="165" t="s">
+        <v>1423</v>
+      </c>
+      <c r="J72" s="137" t="s">
+        <v>25</v>
       </c>
       <c r="K72" s="120" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="L72" s="120" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:12" s="121" customFormat="1">
-      <c r="A73" s="114" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B73" s="115" t="s">
+      <c r="A73" s="126" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B73" s="127" t="s">
         <v>712</v>
       </c>
-      <c r="C73" s="115" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D73" s="116">
+      <c r="C73" s="127" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D73" s="145">
         <v>44042</v>
       </c>
-      <c r="E73" s="116">
+      <c r="E73" s="145">
         <v>44042</v>
       </c>
-      <c r="F73" s="117" t="s">
+      <c r="F73" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="G73" s="117" t="s">
+      <c r="G73" s="146" t="s">
         <v>1600</v>
       </c>
-      <c r="H73" s="118" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I73" s="119" t="s">
-        <v>1423</v>
-      </c>
-      <c r="J73" s="137" t="s">
+      <c r="H73" s="127" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I73" s="147" t="s">
+        <v>1426</v>
+      </c>
+      <c r="J73" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="K73" s="120" t="s">
+      <c r="K73" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="L73" s="120" t="s">
+      <c r="L73" s="129" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="121" customFormat="1">
       <c r="A74" s="114" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B74" s="115" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B74" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C74" s="115" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D74" s="116">
-        <v>44042</v>
-      </c>
-      <c r="E74" s="116">
-        <v>44042</v>
-      </c>
-      <c r="F74" s="117" t="s">
+      <c r="C74" s="134" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D74" s="133">
+        <v>44054</v>
+      </c>
+      <c r="E74" s="133">
+        <v>44055</v>
+      </c>
+      <c r="F74" s="124" t="s">
         <v>59</v>
       </c>
-      <c r="G74" s="117" t="s">
-        <v>1601</v>
-      </c>
-      <c r="H74" s="118" t="s">
-        <v>1425</v>
-      </c>
-      <c r="I74" s="119" t="s">
-        <v>1426</v>
-      </c>
-      <c r="J74" s="137" t="s">
+      <c r="G74" s="139" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H74" s="139" t="s">
+        <v>1625</v>
+      </c>
+      <c r="I74" s="134" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J74" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="K74" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="L74" s="120" t="s">
+      <c r="K74" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L74" s="132" t="s">
         <v>19</v>
       </c>
     </row>
@@ -55230,7 +55231,7 @@
         <v>712</v>
       </c>
       <c r="C75" s="115" t="s">
-        <v>1532</v>
+        <v>1515</v>
       </c>
       <c r="D75" s="128">
         <v>44099</v>
@@ -55242,13 +55243,13 @@
         <v>13</v>
       </c>
       <c r="G75" s="129" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H75" s="130" t="s">
-        <v>1610</v>
-      </c>
-      <c r="I75" s="131" t="s">
-        <v>1596</v>
+        <v>1609</v>
+      </c>
+      <c r="I75" s="130" t="s">
+        <v>1595</v>
       </c>
       <c r="J75" s="130" t="s">
         <v>1503</v>
@@ -55260,21 +55261,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="121" customFormat="1" ht="30">
+    <row r="76" spans="1:12" s="121" customFormat="1">
       <c r="A76" s="114" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="B76" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C76" s="134" t="s">
-        <v>1532</v>
+      <c r="C76" s="115" t="s">
+        <v>1515</v>
       </c>
       <c r="D76" s="133">
         <v>44113</v>
       </c>
       <c r="E76" s="133">
-        <v>44114</v>
+        <v>44117</v>
       </c>
       <c r="F76" s="124" t="s">
         <v>13</v>
@@ -55282,14 +55283,14 @@
       <c r="G76" s="120" t="s">
         <v>1597</v>
       </c>
-      <c r="H76" s="134" t="s">
-        <v>1615</v>
+      <c r="H76" s="135" t="s">
+        <v>1613</v>
       </c>
       <c r="I76" s="134" t="s">
-        <v>1506</v>
-      </c>
-      <c r="J76" s="134" t="s">
-        <v>1521</v>
+        <v>1412</v>
+      </c>
+      <c r="J76" s="136" t="s">
+        <v>25</v>
       </c>
       <c r="K76" s="115" t="s">
         <v>18</v>
@@ -55300,349 +55301,349 @@
     </row>
     <row r="77" spans="1:12" s="121" customFormat="1">
       <c r="A77" s="114" t="s">
-        <v>1509</v>
+        <v>1525</v>
       </c>
       <c r="B77" s="118" t="s">
         <v>712</v>
       </c>
       <c r="C77" s="115" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D77" s="133">
-        <v>44113</v>
-      </c>
+        <v>1515</v>
+      </c>
+      <c r="D77" s="133"/>
       <c r="E77" s="133">
-        <v>44117</v>
+        <v>44142</v>
       </c>
       <c r="F77" s="124" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G77" s="120" t="s">
-        <v>1598</v>
+        <v>1620</v>
       </c>
       <c r="H77" s="135" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="I77" s="134" t="s">
-        <v>1412</v>
+        <v>1608</v>
       </c>
       <c r="J77" s="136" t="s">
         <v>25</v>
       </c>
       <c r="K77" s="115" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="L77" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:12" s="121" customFormat="1">
-      <c r="A78" s="114" t="s">
-        <v>1525</v>
+      <c r="A78" s="122" t="s">
+        <v>1547</v>
       </c>
       <c r="B78" s="118" t="s">
         <v>712</v>
       </c>
-      <c r="C78" s="134" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D78" s="133">
-        <v>44148</v>
-      </c>
-      <c r="E78" s="133">
-        <v>44151</v>
+      <c r="C78" s="142" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D78" s="143">
+        <v>44162</v>
+      </c>
+      <c r="E78" s="143">
+        <v>44165</v>
       </c>
       <c r="F78" s="124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="142" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H78" s="124" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I78" s="142" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J78" s="142" t="s">
+        <v>1549</v>
+      </c>
+      <c r="K78" s="118" t="s">
+        <v>91</v>
+      </c>
+      <c r="L78" s="132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="125" customFormat="1" ht="30">
+      <c r="A79" s="114" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B79" s="115" t="s">
+        <v>712</v>
+      </c>
+      <c r="C79" s="115" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D79" s="116">
+        <v>44032</v>
+      </c>
+      <c r="E79" s="116">
+        <v>44036</v>
+      </c>
+      <c r="F79" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="G78" s="134" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H78" s="134" t="s">
-        <v>1629</v>
-      </c>
-      <c r="I78" s="134" t="s">
-        <v>1630</v>
-      </c>
-      <c r="J78" s="134" t="s">
-        <v>1549</v>
-      </c>
-      <c r="K78" s="115" t="s">
+      <c r="G79" s="117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="H79" s="118" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I79" s="119" t="s">
+        <v>1417</v>
+      </c>
+      <c r="J79" s="119" t="s">
+        <v>1412</v>
+      </c>
+      <c r="K79" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="L78" s="132" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" s="121" customFormat="1">
-      <c r="A79" s="159" t="s">
+      <c r="L79" s="120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="125" customFormat="1">
+      <c r="A80" s="122"/>
+      <c r="B80" s="118" t="s">
+        <v>712</v>
+      </c>
+      <c r="C80" s="118" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D80" s="116">
+        <v>44120</v>
+      </c>
+      <c r="E80" s="116">
+        <v>44123</v>
+      </c>
+      <c r="F80" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="142" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H80" s="124" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I80" s="119" t="s">
+        <v>1604</v>
+      </c>
+      <c r="J80" s="164" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="L80" s="124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="125" customFormat="1">
+      <c r="A81" s="159" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B81" s="115" t="s">
+        <v>950</v>
+      </c>
+      <c r="C81" s="134" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D81" s="133">
+        <v>44123</v>
+      </c>
+      <c r="E81" s="133">
+        <v>44126</v>
+      </c>
+      <c r="F81" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="117" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H81" s="142" t="s">
+        <v>1577</v>
+      </c>
+      <c r="I81" s="142" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J81" s="142" t="s">
         <v>1576</v>
       </c>
-      <c r="B79" s="115" t="s">
+      <c r="K81" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L81" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" s="125" customFormat="1">
+      <c r="A82" s="114"/>
+      <c r="B82" s="115" t="s">
         <v>950</v>
       </c>
-      <c r="C79" s="134" t="s">
+      <c r="C82" s="115" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D82" s="144">
+        <v>44104</v>
+      </c>
+      <c r="E82" s="144">
+        <v>44105</v>
+      </c>
+      <c r="F82" s="117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="117" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H82" s="152" t="s">
+        <v>1591</v>
+      </c>
+      <c r="I82" s="153" t="s">
+        <v>1588</v>
+      </c>
+      <c r="J82" s="154" t="s">
+        <v>1590</v>
+      </c>
+      <c r="K82" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="L82" s="115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" s="125" customFormat="1" ht="30">
+      <c r="A83" s="155" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B83" s="112" t="s">
+        <v>950</v>
+      </c>
+      <c r="C83" s="101" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D83" s="111">
+        <v>44102</v>
+      </c>
+      <c r="E83" s="111">
+        <v>44132</v>
+      </c>
+      <c r="F83" s="156" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G83" s="156" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H83" s="157" t="s">
         <v>1570</v>
       </c>
-      <c r="D79" s="133">
-        <v>44123</v>
-      </c>
-      <c r="E79" s="133">
-        <v>44126</v>
-      </c>
-      <c r="F79" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="117" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H79" s="142" t="s">
+      <c r="I83" s="166" t="s">
         <v>1578</v>
       </c>
-      <c r="I79" s="142" t="s">
+      <c r="J83" s="158" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="112" t="s">
+        <v>91</v>
+      </c>
+      <c r="L83" s="112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="125" customFormat="1" ht="30">
+      <c r="A84" s="109" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B84" s="112" t="s">
+        <v>950</v>
+      </c>
+      <c r="C84" s="101" t="s">
         <v>1574</v>
       </c>
-      <c r="J79" s="142" t="s">
-        <v>1577</v>
-      </c>
-      <c r="K79" s="115" t="s">
+      <c r="D84" s="111">
+        <v>44154</v>
+      </c>
+      <c r="E84" s="111">
+        <v>44154</v>
+      </c>
+      <c r="F84" s="156" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G84" s="156" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H84" s="157" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I84" s="169" t="s">
+        <v>1573</v>
+      </c>
+      <c r="J84" s="157" t="s">
+        <v>1573</v>
+      </c>
+      <c r="K84" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="L79" s="115" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" s="121" customFormat="1">
-      <c r="A80" s="134" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B80" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="134" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D80" s="133"/>
-      <c r="E80" s="133">
-        <v>44159</v>
-      </c>
-      <c r="F80" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="117" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H80" s="134" t="s">
-        <v>1633</v>
-      </c>
-      <c r="I80" s="134" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J80" s="134" t="s">
+      <c r="L84" s="112" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" s="125" customFormat="1">
+      <c r="A85" s="122" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B85" s="118" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C85" s="118" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D85" s="116">
+        <v>44033</v>
+      </c>
+      <c r="E85" s="116">
+        <v>44033</v>
+      </c>
+      <c r="F85" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="124" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H85" s="122" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I85" s="160" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J85" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="K80" s="134" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L80" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" s="121" customFormat="1">
-      <c r="A81" s="134" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B81" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="134" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D81" s="134"/>
-      <c r="E81" s="133">
-        <v>44162</v>
-      </c>
-      <c r="F81" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="134" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H81" s="134" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I81" s="134" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J81" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K81" s="134" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L81" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" s="125" customFormat="1">
-      <c r="A82" s="134" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B82" s="134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="134" t="s">
-        <v>1557</v>
-      </c>
-      <c r="D82" s="134"/>
-      <c r="E82" s="133">
-        <v>44165</v>
-      </c>
-      <c r="F82" s="134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="134" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H82" s="134" t="s">
-        <v>1631</v>
-      </c>
-      <c r="I82" s="134" t="s">
-        <v>1554</v>
-      </c>
-      <c r="J82" s="134" t="s">
-        <v>25</v>
-      </c>
-      <c r="K82" s="134" t="s">
-        <v>1556</v>
-      </c>
-      <c r="L82" s="134" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" s="125" customFormat="1">
-      <c r="A83" s="114" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B83" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C83" s="115" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D83" s="144">
-        <v>44033</v>
-      </c>
-      <c r="E83" s="144">
-        <v>44033</v>
-      </c>
-      <c r="F83" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G83" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H83" s="118" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I83" s="119" t="s">
-        <v>1290</v>
-      </c>
-      <c r="J83" s="119" t="s">
-        <v>1291</v>
-      </c>
-      <c r="K83" s="124" t="s">
+      <c r="K85" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="L83" s="118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="125" customFormat="1">
-      <c r="A84" s="114" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B84" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C84" s="115" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D84" s="144">
-        <v>44047</v>
-      </c>
-      <c r="E84" s="144">
-        <v>44047</v>
-      </c>
-      <c r="F84" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G84" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H84" s="118" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I84" s="119" t="s">
-        <v>1294</v>
-      </c>
-      <c r="J84" s="119" t="s">
-        <v>1295</v>
-      </c>
-      <c r="K84" s="124" t="s">
-        <v>18</v>
-      </c>
-      <c r="L84" s="118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" s="125" customFormat="1">
-      <c r="A85" s="114" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B85" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="115" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D85" s="144">
-        <v>44050</v>
-      </c>
-      <c r="E85" s="144">
-        <v>44050</v>
-      </c>
-      <c r="F85" s="117" t="s">
-        <v>59</v>
-      </c>
-      <c r="G85" s="117" t="s">
-        <v>1600</v>
-      </c>
-      <c r="H85" s="118" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I85" s="119" t="s">
-        <v>1298</v>
-      </c>
-      <c r="J85" s="151" t="s">
-        <v>25</v>
-      </c>
-      <c r="K85" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="L85" s="115" t="s">
-        <v>1299</v>
+      <c r="L85" s="132" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:12" s="125" customFormat="1">
       <c r="A86" s="122" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="B86" s="118" t="s">
         <v>1103</v>
       </c>
       <c r="C86" s="142" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D86" s="143">
         <v>44160</v>
@@ -55654,13 +55655,13 @@
         <v>13</v>
       </c>
       <c r="G86" s="142" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H86" s="142" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I86" s="163" t="s">
-        <v>1645</v>
+        <v>1644</v>
+      </c>
+      <c r="I86" s="142" t="s">
+        <v>1643</v>
       </c>
       <c r="J86" s="142" t="s">
         <v>25</v>
@@ -55674,72 +55675,72 @@
     </row>
     <row r="87" spans="1:12" s="125" customFormat="1">
       <c r="A87" s="122" t="s">
-        <v>1587</v>
+        <v>1485</v>
       </c>
       <c r="B87" s="118" t="s">
         <v>1103</v>
       </c>
-      <c r="C87" s="142" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D87" s="143">
-        <v>44160</v>
-      </c>
-      <c r="E87" s="143">
-        <v>44162</v>
-      </c>
-      <c r="F87" s="142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="142" t="s">
-        <v>1598</v>
-      </c>
-      <c r="H87" s="142" t="s">
-        <v>1646</v>
-      </c>
-      <c r="I87" s="163" t="s">
-        <v>1645</v>
-      </c>
-      <c r="J87" s="142" t="s">
+      <c r="C87" s="118" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D87" s="116">
+        <v>44033</v>
+      </c>
+      <c r="E87" s="116">
+        <v>44033</v>
+      </c>
+      <c r="F87" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G87" s="124" t="s">
+        <v>1602</v>
+      </c>
+      <c r="H87" s="122" t="s">
+        <v>1486</v>
+      </c>
+      <c r="I87" s="160" t="s">
+        <v>1487</v>
+      </c>
+      <c r="J87" s="136" t="s">
         <v>25</v>
       </c>
       <c r="K87" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="118" t="s">
+      <c r="L87" s="132" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:12" s="125" customFormat="1">
       <c r="A88" s="122" t="s">
-        <v>1389</v>
+        <v>1586</v>
       </c>
       <c r="B88" s="118" t="s">
-        <v>503</v>
-      </c>
-      <c r="C88" s="118" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C88" s="142" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D88" s="143">
+        <v>44160</v>
+      </c>
+      <c r="E88" s="143">
+        <v>44162</v>
+      </c>
+      <c r="F88" s="142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="142" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H88" s="142" t="s">
         <v>1644</v>
       </c>
-      <c r="D88" s="116">
-        <v>44034</v>
-      </c>
-      <c r="E88" s="116">
-        <v>44034</v>
-      </c>
-      <c r="F88" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="G88" s="118" t="s">
-        <v>102</v>
-      </c>
-      <c r="H88" s="122" t="s">
-        <v>1390</v>
-      </c>
-      <c r="I88" s="160" t="s">
-        <v>1391</v>
-      </c>
-      <c r="J88" s="162" t="s">
-        <v>1392</v>
+      <c r="I88" s="142" t="s">
+        <v>1643</v>
+      </c>
+      <c r="J88" s="142" t="s">
+        <v>25</v>
       </c>
       <c r="K88" s="118" t="s">
         <v>18</v>
@@ -55748,173 +55749,66 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="125" customFormat="1">
-      <c r="A89" s="122" t="s">
-        <v>1647</v>
-      </c>
-      <c r="B89" s="118" t="s">
-        <v>503</v>
-      </c>
-      <c r="C89" s="118" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D89" s="116"/>
-      <c r="E89" s="116">
-        <v>44063</v>
-      </c>
-      <c r="F89" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="G89" s="118" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H89" s="118" t="s">
-        <v>1652</v>
-      </c>
-      <c r="I89" s="160" t="s">
-        <v>1651</v>
-      </c>
-      <c r="J89" s="164" t="s">
-        <v>25</v>
-      </c>
-      <c r="K89" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" s="118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" s="125" customFormat="1">
-      <c r="A90" s="122" t="s">
-        <v>1654</v>
-      </c>
-      <c r="B90" s="118" t="s">
-        <v>503</v>
-      </c>
-      <c r="C90" s="118" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D90" s="116"/>
-      <c r="E90" s="116">
-        <v>44089</v>
-      </c>
-      <c r="F90" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="G90" s="118" t="s">
-        <v>1603</v>
-      </c>
-      <c r="H90" s="118" t="s">
-        <v>1655</v>
-      </c>
-      <c r="I90" s="160" t="s">
-        <v>1651</v>
-      </c>
-      <c r="J90" s="164" t="s">
-        <v>25</v>
-      </c>
-      <c r="K90" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="L90" s="118" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" s="125" customFormat="1">
-      <c r="A91" s="122" t="s">
-        <v>1653</v>
-      </c>
-      <c r="B91" s="118" t="s">
-        <v>503</v>
-      </c>
-      <c r="C91" s="118" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D91" s="116"/>
-      <c r="E91" s="116">
-        <v>44161</v>
-      </c>
-      <c r="F91" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="118" t="s">
-        <v>1649</v>
-      </c>
-      <c r="H91" s="122" t="s">
-        <v>1650</v>
-      </c>
-      <c r="I91" s="160" t="s">
-        <v>1648</v>
-      </c>
-      <c r="J91" s="164" t="s">
-        <v>1651</v>
-      </c>
-      <c r="K91" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="L91" s="118" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L91" xr:uid="{D3EA9D70-1DD0-F64C-9D19-65089DF69632}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L85">
-      <sortCondition descending="1" ref="C2:C85"/>
-      <sortCondition ref="E2:E85"/>
+  <autoFilter ref="A1:L88" xr:uid="{D3EA9D70-1DD0-F64C-9D19-65089DF69632}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L88">
+      <sortCondition ref="B2:B88"/>
+      <sortCondition ref="C2:C88"/>
+      <sortCondition ref="E2:E88"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J83" r:id="rId1" xr:uid="{9A133E8B-BA27-014E-B4CB-FE7BF71C5FB5}"/>
-    <hyperlink ref="I83" r:id="rId2" xr:uid="{92AA0DDA-2F50-C744-9BC7-D3A9423B7801}"/>
-    <hyperlink ref="I84" r:id="rId3" xr:uid="{9907A42E-94DE-7D44-9392-55EE1D7C5271}"/>
-    <hyperlink ref="J84" r:id="rId4" xr:uid="{0EC3DAE3-DBE7-AA4C-841E-0E8E86D4E0F4}"/>
-    <hyperlink ref="I85" r:id="rId5" xr:uid="{047D3120-2FC0-4E42-97EE-82A1BCBEAED0}"/>
-    <hyperlink ref="I39" r:id="rId6" xr:uid="{3056E803-7C85-C641-B8A5-DE4555EE2EFD}"/>
-    <hyperlink ref="I72" r:id="rId7" xr:uid="{4C3AFFDB-38F7-5A46-A93F-41ADE0DF18A8}"/>
-    <hyperlink ref="J72" r:id="rId8" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{55B74428-7CED-C345-BDE2-3BBFABD3E2AF}"/>
-    <hyperlink ref="I24" r:id="rId9" xr:uid="{D0191A21-C7D5-CE49-BF58-709CFB923710}"/>
-    <hyperlink ref="J24" r:id="rId10" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{E7992805-268F-1F44-AAE7-939CAAC78367}"/>
-    <hyperlink ref="I41" r:id="rId11" xr:uid="{1B05F4A5-B5EA-A949-81DE-7A609B1A9FC5}"/>
-    <hyperlink ref="I42" r:id="rId12" xr:uid="{6800A844-FEE3-C04A-929B-9D03C1C439DC}"/>
-    <hyperlink ref="I62" r:id="rId13" xr:uid="{69047728-9543-1247-A5BE-8D4614CFE41C}"/>
-    <hyperlink ref="J62" r:id="rId14" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{691B7EB4-599F-EC4E-867C-7F8CA77FBD52}"/>
-    <hyperlink ref="I40" r:id="rId15" xr:uid="{4204DAAC-5378-3F4E-B5A9-6DD417A3FC1A}"/>
-    <hyperlink ref="J40" r:id="rId16" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{1041D2EB-9DAC-1F42-B966-EA4CA05645E1}"/>
-    <hyperlink ref="I2" r:id="rId17" xr:uid="{14FAFFEF-C651-D24E-AA20-5D264F466D85}"/>
-    <hyperlink ref="J2" r:id="rId18" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{5CFA2580-E058-2D44-A55E-E408DDD9860A}"/>
-    <hyperlink ref="I58" r:id="rId19" xr:uid="{E4E94D16-1FD2-2942-B1AD-B93DE21D810D}"/>
-    <hyperlink ref="J58" r:id="rId20" xr:uid="{085DB823-D1F3-4A43-8045-BD84A25FEA77}"/>
-    <hyperlink ref="I59" r:id="rId21" xr:uid="{DE7C7BD7-CB19-6C41-814C-341FEEF56719}"/>
-    <hyperlink ref="J59" r:id="rId22" xr:uid="{39C34B9C-6B4D-9D40-882D-38865B40CEE1}"/>
-    <hyperlink ref="I7" r:id="rId23" xr:uid="{796066CA-8DDA-1648-B49D-B8064222CD77}"/>
-    <hyperlink ref="I73" r:id="rId24" xr:uid="{62121106-BCE2-8345-B976-E2BF110C79B6}"/>
-    <hyperlink ref="I51" r:id="rId25" xr:uid="{244C74A6-93E5-C846-9E75-4BE6D393A6A8}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{0776C766-3BA3-B743-A4B7-1BFE6BD18D74}"/>
-    <hyperlink ref="I63" r:id="rId27" xr:uid="{DD08BFE5-AD36-C840-88E2-F74D62D22690}"/>
-    <hyperlink ref="I33" r:id="rId28" xr:uid="{5015A4E2-8ED6-9C4F-8497-251E6E6A8893}"/>
-    <hyperlink ref="I23" r:id="rId29" xr:uid="{14422CEC-56FE-BB45-AF1F-32D2887C653D}"/>
-    <hyperlink ref="I8" r:id="rId30" xr:uid="{4BB86159-8F82-BA43-A49D-FEFF44A67E48}"/>
-    <hyperlink ref="I74" r:id="rId31" xr:uid="{5DA16691-B1DC-F941-84CB-4B095125CAEF}"/>
-    <hyperlink ref="I52" r:id="rId32" xr:uid="{FEB3986C-8839-C548-BCD0-E51A4A341597}"/>
-    <hyperlink ref="I15" r:id="rId33" xr:uid="{7595DDCB-236E-D646-A864-9BA77DCE7665}"/>
-    <hyperlink ref="I64" r:id="rId34" xr:uid="{4EAC5CE9-0494-C145-B552-383716D77C7A}"/>
-    <hyperlink ref="I34" r:id="rId35" xr:uid="{8A6ED564-D3DB-5A4D-AB87-33FFE8EE78F1}"/>
-    <hyperlink ref="J23" r:id="rId36" xr:uid="{B13B0A15-6A08-DE49-93FA-39A781D1E949}"/>
-    <hyperlink ref="I55" r:id="rId37" xr:uid="{5752B2AF-5B4B-0243-BE03-1AF937F50FA1}"/>
-    <hyperlink ref="J55" r:id="rId38" xr:uid="{C0271BDC-702D-5B4A-BF08-483C9C5F2530}"/>
-    <hyperlink ref="I19" r:id="rId39" xr:uid="{D323E607-B373-5F4F-803C-A6446635F075}"/>
-    <hyperlink ref="J19" r:id="rId40" xr:uid="{B3E02584-7A10-C042-8FB0-085271F69160}"/>
-    <hyperlink ref="I56" r:id="rId41" xr:uid="{2E0FCB06-9E21-784B-A34F-7F01A9E85AB4}"/>
-    <hyperlink ref="J56" r:id="rId42" xr:uid="{D493AD81-399C-1042-816B-D93B366AA787}"/>
-    <hyperlink ref="I20" r:id="rId43" xr:uid="{EEF0EBF7-80C8-7045-9267-011F8CDBB121}"/>
-    <hyperlink ref="J20" r:id="rId44" xr:uid="{AD1D3E84-4D7D-7140-AAD0-99D5D76D8E47}"/>
-    <hyperlink ref="I4" r:id="rId45" xr:uid="{8D2A64DF-13E2-4445-BC9E-7241C4199AE4}"/>
-    <hyperlink ref="J4" r:id="rId46" xr:uid="{D9D5CA4B-2147-9A49-AE8B-BC90E428825C}"/>
-    <hyperlink ref="I5" r:id="rId47" xr:uid="{96DEAEAF-A5B2-D64B-9CEF-B36481C01987}"/>
-    <hyperlink ref="I32" r:id="rId48" xr:uid="{280C37A6-688D-804F-889D-7DDF89E83653}"/>
-    <hyperlink ref="I31" r:id="rId49" xr:uid="{43B254D1-91EA-0A4A-ACE2-54B8D1470CCB}"/>
-    <hyperlink ref="J88" r:id="rId50" xr:uid="{9C496835-0A95-3740-8BB0-B56306876A36}"/>
-    <hyperlink ref="I88" r:id="rId51" xr:uid="{DA17DE05-0B19-6F46-83EA-FF80500EA6CD}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{9A133E8B-BA27-014E-B4CB-FE7BF71C5FB5}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{92AA0DDA-2F50-C744-9BC7-D3A9423B7801}"/>
+    <hyperlink ref="I3" r:id="rId3" xr:uid="{9907A42E-94DE-7D44-9392-55EE1D7C5271}"/>
+    <hyperlink ref="J3" r:id="rId4" xr:uid="{0EC3DAE3-DBE7-AA4C-841E-0E8E86D4E0F4}"/>
+    <hyperlink ref="I4" r:id="rId5" xr:uid="{047D3120-2FC0-4E42-97EE-82A1BCBEAED0}"/>
+    <hyperlink ref="I53" r:id="rId6" xr:uid="{3056E803-7C85-C641-B8A5-DE4555EE2EFD}"/>
+    <hyperlink ref="I29" r:id="rId7" xr:uid="{4C3AFFDB-38F7-5A46-A93F-41ADE0DF18A8}"/>
+    <hyperlink ref="J29" r:id="rId8" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{55B74428-7CED-C345-BDE2-3BBFABD3E2AF}"/>
+    <hyperlink ref="I61" r:id="rId9" xr:uid="{D0191A21-C7D5-CE49-BF58-709CFB923710}"/>
+    <hyperlink ref="J61" r:id="rId10" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{E7992805-268F-1F44-AAE7-939CAAC78367}"/>
+    <hyperlink ref="I47" r:id="rId11" xr:uid="{1B05F4A5-B5EA-A949-81DE-7A609B1A9FC5}"/>
+    <hyperlink ref="I48" r:id="rId12" xr:uid="{6800A844-FEE3-C04A-929B-9D03C1C439DC}"/>
+    <hyperlink ref="I35" r:id="rId13" xr:uid="{69047728-9543-1247-A5BE-8D4614CFE41C}"/>
+    <hyperlink ref="J35" r:id="rId14" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{691B7EB4-599F-EC4E-867C-7F8CA77FBD52}"/>
+    <hyperlink ref="I46" r:id="rId15" xr:uid="{4204DAAC-5378-3F4E-B5A9-6DD417A3FC1A}"/>
+    <hyperlink ref="J46" r:id="rId16" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{1041D2EB-9DAC-1F42-B966-EA4CA05645E1}"/>
+    <hyperlink ref="I79" r:id="rId17" xr:uid="{14FAFFEF-C651-D24E-AA20-5D264F466D85}"/>
+    <hyperlink ref="J79" r:id="rId18" location="section-3" display="https://www.ontario.ca/page/reopening-ontario-stages?_ga=2.211279445.1356928481.1596562275-470745044.1584640249 - section-3" xr:uid="{5CFA2580-E058-2D44-A55E-E408DDD9860A}"/>
+    <hyperlink ref="I11" r:id="rId19" xr:uid="{E4E94D16-1FD2-2942-B1AD-B93DE21D810D}"/>
+    <hyperlink ref="J11" r:id="rId20" xr:uid="{085DB823-D1F3-4A43-8045-BD84A25FEA77}"/>
+    <hyperlink ref="I12" r:id="rId21" xr:uid="{DE7C7BD7-CB19-6C41-814C-341FEEF56719}"/>
+    <hyperlink ref="J12" r:id="rId22" xr:uid="{39C34B9C-6B4D-9D40-882D-38865B40CEE1}"/>
+    <hyperlink ref="I72" r:id="rId23" xr:uid="{796066CA-8DDA-1648-B49D-B8064222CD77}"/>
+    <hyperlink ref="I30" r:id="rId24" xr:uid="{62121106-BCE2-8345-B976-E2BF110C79B6}"/>
+    <hyperlink ref="I41" r:id="rId25" xr:uid="{244C74A6-93E5-C846-9E75-4BE6D393A6A8}"/>
+    <hyperlink ref="I67" r:id="rId26" xr:uid="{0776C766-3BA3-B743-A4B7-1BFE6BD18D74}"/>
+    <hyperlink ref="I36" r:id="rId27" xr:uid="{DD08BFE5-AD36-C840-88E2-F74D62D22690}"/>
+    <hyperlink ref="I54" r:id="rId28" xr:uid="{5015A4E2-8ED6-9C4F-8497-251E6E6A8893}"/>
+    <hyperlink ref="I60" r:id="rId29" xr:uid="{14422CEC-56FE-BB45-AF1F-32D2887C653D}"/>
+    <hyperlink ref="I73" r:id="rId30" xr:uid="{4BB86159-8F82-BA43-A49D-FEFF44A67E48}"/>
+    <hyperlink ref="I31" r:id="rId31" xr:uid="{5DA16691-B1DC-F941-84CB-4B095125CAEF}"/>
+    <hyperlink ref="I42" r:id="rId32" xr:uid="{FEB3986C-8839-C548-BCD0-E51A4A341597}"/>
+    <hyperlink ref="I68" r:id="rId33" xr:uid="{7595DDCB-236E-D646-A864-9BA77DCE7665}"/>
+    <hyperlink ref="I37" r:id="rId34" xr:uid="{4EAC5CE9-0494-C145-B552-383716D77C7A}"/>
+    <hyperlink ref="I55" r:id="rId35" xr:uid="{8A6ED564-D3DB-5A4D-AB87-33FFE8EE78F1}"/>
+    <hyperlink ref="J60" r:id="rId36" xr:uid="{B13B0A15-6A08-DE49-93FA-39A781D1E949}"/>
+    <hyperlink ref="I14" r:id="rId37" xr:uid="{5752B2AF-5B4B-0243-BE03-1AF937F50FA1}"/>
+    <hyperlink ref="J14" r:id="rId38" xr:uid="{C0271BDC-702D-5B4A-BF08-483C9C5F2530}"/>
+    <hyperlink ref="I17" r:id="rId39" xr:uid="{D323E607-B373-5F4F-803C-A6446635F075}"/>
+    <hyperlink ref="J17" r:id="rId40" xr:uid="{B3E02584-7A10-C042-8FB0-085271F69160}"/>
+    <hyperlink ref="I15" r:id="rId41" xr:uid="{2E0FCB06-9E21-784B-A34F-7F01A9E85AB4}"/>
+    <hyperlink ref="J15" r:id="rId42" xr:uid="{D493AD81-399C-1042-816B-D93B366AA787}"/>
+    <hyperlink ref="I18" r:id="rId43" xr:uid="{EEF0EBF7-80C8-7045-9267-011F8CDBB121}"/>
+    <hyperlink ref="J18" r:id="rId44" xr:uid="{AD1D3E84-4D7D-7140-AAD0-99D5D76D8E47}"/>
+    <hyperlink ref="I21" r:id="rId45" xr:uid="{8D2A64DF-13E2-4445-BC9E-7241C4199AE4}"/>
+    <hyperlink ref="J21" r:id="rId46" xr:uid="{D9D5CA4B-2147-9A49-AE8B-BC90E428825C}"/>
+    <hyperlink ref="I22" r:id="rId47" xr:uid="{96DEAEAF-A5B2-D64B-9CEF-B36481C01987}"/>
+    <hyperlink ref="I85" r:id="rId48" xr:uid="{280C37A6-688D-804F-889D-7DDF89E83653}"/>
+    <hyperlink ref="I87" r:id="rId49" xr:uid="{43B254D1-91EA-0A4A-ACE2-54B8D1470CCB}"/>
+    <hyperlink ref="J25" r:id="rId50" xr:uid="{9C496835-0A95-3740-8BB0-B56306876A36}"/>
+    <hyperlink ref="I25" r:id="rId51" xr:uid="{DA17DE05-0B19-6F46-83EA-FF80500EA6CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -55935,12 +55829,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="121" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="97" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
   </sheetData>
